--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/EntryPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
         <v>EntryPositionsManager</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/ExitPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
         <v>ExitPositionsManager</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/IncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
         <v>IncentivesVault</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/InterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
         <v>InterestRatesManager</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -859,45 +859,45 @@
         <v>0.15420594251058325</v>
       </c>
       <c r="AD5">
-        <v>0.39503967520773015</v>
+        <v>0.3846646752077302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MatchingEngine.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>MatchingEngine</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -939,55 +939,55 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.23988373447029665</v>
+        <v>0.011697780908770694</v>
       </c>
       <c r="AD6">
-        <v>0.5117028050834478</v>
+        <v>0.04758870344872754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/Morpho.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>Morpho</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1031,82 +1031,82 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02531457509527934</v>
+        <v>0.012057062345896444</v>
       </c>
       <c r="AD7">
-        <v>0.24719207178651947</v>
+        <v>0.13437413452634586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoGovernance.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>MorphoGovernance</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>519</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>22</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>26</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1123,42 +1123,42 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.05515736868215736</v>
+        <v>0.012615944581425384</v>
       </c>
       <c r="AD8">
-        <v>0.6452107018820856</v>
+        <v>0.15387422233288003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>MorphoStorage</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1218,57 +1218,57 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.010021134202183868</v>
+        <v>0.010819537395796643</v>
       </c>
       <c r="AD9">
-        <v>0.6294389855666099</v>
+        <v>0.0664819489818678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/MorphoUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>MorphoUtils</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1307,27 +1307,27 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.05658421763454346</v>
+        <v>0.013214746976634967</v>
       </c>
       <c r="AD10">
-        <v>0.6194050121855915</v>
+        <v>0.2004659654660564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/PositionsManagerUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1399,27 +1399,27 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.026742414492282405</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD11">
-        <v>0.23881018168207063</v>
+        <v>0.10289372233979419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IEntryPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1497,36 +1497,36 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.016009158154279675</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD12">
-        <v>0.08708477728663956</v>
+        <v>0.015385163611753435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IExitPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IExitPositionsManager</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1589,36 +1589,36 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.015110954561465304</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD13">
-        <v>0.09265775778664327</v>
+        <v>0.033074211200324215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IGetterUnderlyingAsset.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.010021134202183868</v>
+        <v>0.01217682282493836</v>
       </c>
       <c r="AD14">
-        <v>0.025318554190752456</v>
+        <v>0.09433014614635733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IIncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IIncentivesVault</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1770,39 +1770,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.010021134202183868</v>
+        <v>0.016009158154279675</v>
       </c>
       <c r="AD15">
-        <v>0.1132864971028275</v>
+        <v>0.024834777286639555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IInterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1865,36 +1865,36 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.010021134202183868</v>
+        <v>0.015110954561465304</v>
       </c>
       <c r="AD16">
-        <v>0.16019355419075246</v>
+        <v>0.03040775778664328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IMorpho.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IMorpho</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1954,39 +1954,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0.010021134202183868</v>
       </c>
       <c r="AD17">
-        <v>0.326027296744937</v>
+        <v>0.025318554190752456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IOracle.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IOracle</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2046,39 +2046,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0.010021134202183868</v>
       </c>
       <c r="AD18">
-        <v>0.06681855419075246</v>
+        <v>0.05103649710282751</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/IRewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IRewardsManager</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2138,24 +2138,24 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.012074170985759572</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD19">
-        <v>0.1005181042056133</v>
+        <v>0.09794355419075246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IAToken</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2230,39 +2230,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.012615944581425384</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD20">
-        <v>0.21612422233288003</v>
+        <v>0.26377729674493705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAaveIncentivesController.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2325,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.011697780908770694</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD21">
-        <v>0.06833870344872754</v>
+        <v>0.025318554190752456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IAaveIncentivesController.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2414,39 +2414,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.012057062345896444</v>
+        <v>0.012074170985759572</v>
       </c>
       <c r="AD22">
-        <v>0.13437413452634586</v>
+        <v>0.038268104205613294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IERC20.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>IERC20</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2509,51 +2509,51 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.010819537395796643</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD23">
-        <v>0.0872319489818678</v>
+        <v>0.04876875757286905</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/ILendingPool.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>ILendingPool</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>410</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2595,42 +2595,42 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.013214746976634967</v>
+        <v>0.04321656460833988</v>
       </c>
       <c r="AD24">
-        <v>0.28346596546605646</v>
+        <v>0.19945962611944623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/ILendingPoolAddressesProvider.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2690,45 +2690,45 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.010021134202183868</v>
+        <v>0.014656569214512152</v>
       </c>
       <c r="AD25">
-        <v>0.1443937223397942</v>
+        <v>0.18946230781796122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IPriceOracleGetter.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,27 +2779,27 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.010021134202183868</v>
+        <v>0.13356906097307647</v>
       </c>
       <c r="AD26">
-        <v>0.07763516361175343</v>
+        <v>0.45051087267364953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IScaledBalanceToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2808,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2853,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -2871,54 +2871,54 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.010021134202183868</v>
+        <v>0.015410355759070096</v>
       </c>
       <c r="AD27">
-        <v>0.07457421120032422</v>
+        <v>0.3499189168095873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/aave/IVariableDebtToken.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>IVariableDebtToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2963,81 +2963,81 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.01217682282493836</v>
+        <v>0.02337811008998047</v>
       </c>
       <c r="AD28">
-        <v>0.13583014614635733</v>
+        <v>0.19358170113186185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/interfaces/lido/ILido.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>ILido</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>5</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3055,82 +3055,82 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.010021134202183868</v>
+        <v>0.06605444841839699</v>
       </c>
       <c r="AD29">
-        <v>0.09026875757286905</v>
+        <v>0.37926739460257686</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/IndexesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>471</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>113</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
       <c r="U30">
         <v>0</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,48 +3147,48 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.04321656460833988</v>
+        <v>0.08255940873111378</v>
       </c>
       <c r="AD30">
-        <v>0.1994596261194462</v>
+        <v>0.4572804892375649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/Lens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>Lens</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>98</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3221,16 +3221,16 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,42 +3239,42 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.13356906097307647</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.45051087267364953</v>
+        <v>0.11552177317829919</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/LensStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>LensStorage</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>1</v>
@@ -3331,48 +3331,48 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.015410355759070096</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.3706689168095873</v>
+        <v>0.20370116027795124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/MarketsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>MarketsLens</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,48 +3423,48 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.02337811008998047</v>
+        <v>0.023592654263665188</v>
       </c>
       <c r="AD33">
-        <v>0.21433170113186184</v>
+        <v>0.255211290621952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/RatesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>RatesLens</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3488,16 +3488,16 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,137 +3515,137 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.06605444841839699</v>
+        <v>0.06960197252553717</v>
       </c>
       <c r="AD34">
-        <v>0.4000173946025768</v>
+        <v>0.14486085081515077</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/UsersLens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>UsersLens</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>197</v>
+      </c>
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>471</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>12</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>37</v>
+      </c>
+      <c r="AA35">
         <v>4</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>7</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>7</v>
-      </c>
-      <c r="T35">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>15</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>75</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.08255940873111378</v>
+        <v>0.07383969617326434</v>
       </c>
       <c r="AD35">
-        <v>0.5091554892375649</v>
+        <v>0.2501593583660869</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/lens/interfaces/ILens.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>ILens</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3702,42 +3702,42 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.014656569214512152</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.2600123078179612</v>
+        <v>0.1931789571376176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/InterestRatesModel.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>InterestRatesModel</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>197</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,82 +3791,82 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AA37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.07383969617326434</v>
+        <v>0.23988373447029665</v>
       </c>
       <c r="AD37">
-        <v>0.27090935836608687</v>
+        <v>0.49095280508344774</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/Types.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Types</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
         <v>11</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,57 +3883,57 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>0.02531457509527934</v>
       </c>
       <c r="AD38">
-        <v>0.24505395713761757</v>
+        <v>0.24719207178651947</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/DataTypes.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>DataTypes</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3975,42 +3975,42 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>0.05515736868215736</v>
       </c>
       <c r="AD39">
-        <v>0.1985217731782992</v>
+        <v>0.6244607018820856</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/Errors.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>Errors</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4070,57 +4070,57 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD40">
-        <v>0.22445116027795123</v>
+        <v>0.58793898556661</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/ReserveConfiguration.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>ReserveConfiguration</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4159,27 +4159,27 @@
         <v>0</v>
       </c>
       <c r="Z41">
+        <v>40</v>
+      </c>
+      <c r="AA41">
         <v>9</v>
       </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.023592654263665188</v>
+        <v>0.05658421763454346</v>
       </c>
       <c r="AD41">
-        <v>0.296711290621952</v>
+        <v>0.5779050121855915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>morpho/morpho-v1-main/src/aave-v2/libraries/aave/UserConfiguration.sol</v>
+        <v>morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>UserConfiguration</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4188,28 +4188,28 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -4251,24 +4251,24 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.06960197252553717</v>
+        <v>0.026742414492282405</v>
       </c>
       <c r="AD42">
-        <v>0.1552358508151508</v>
+        <v>0.24711018168207063</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>morpho/morpho-v1-main/src/common/rewards-distribution/RewardsDistributor.sol</v>
+        <v>morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
         <v>RewardsDistributor</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>morpho/morpho-v1-main/src/common/test/FakeToken.sol</v>
+        <v>morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
         <v>FakeToken</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>morpho/morpho-v1-main/src/compound/IncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
         <v>IncentivesVault</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>morpho/morpho-v1-main/src/compound/InterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
         <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4631,45 +4631,45 @@
         <v>0.15420594251058325</v>
       </c>
       <c r="AD46">
-        <v>0.370599760894325</v>
+        <v>0.3602247608943251</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MatchingEngine.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>MatchingEngine</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4690,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.23988373447029665</v>
+        <v>0.010273261526482638</v>
       </c>
       <c r="AD47">
-        <v>0.5629010460494173</v>
+        <v>0.06437682713799359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>morpho/morpho-v1-main/src/compound/Morpho.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>Morpho</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,66 +4794,66 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.02531457509527934</v>
+        <v>0.013001220541133873</v>
       </c>
       <c r="AD48">
-        <v>0.305812725672489</v>
+        <v>0.15581930924621065</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoGovernance.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>MorphoGovernance</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>477</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4874,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,42 +4895,42 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.05515736868215736</v>
+        <v>0.015410355759070096</v>
       </c>
       <c r="AD49">
-        <v>0.5561155029329812</v>
+        <v>0.0241156753152625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>MorphoStorage</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F50">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4945,16 +4945,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4990,48 +4990,48 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.010021134202183868</v>
+        <v>0.010696706135240831</v>
       </c>
       <c r="AD50">
-        <v>0.5816481038958937</v>
+        <v>0.12172937727318864</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>morpho/morpho-v1-main/src/compound/MorphoUtils.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>MorphoUtils</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,57 +5079,57 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.05658421763454346</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD51">
-        <v>0.4678551460312502</v>
+        <v>0.059143757572869056</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>morpho/morpho-v1-main/src/compound/PositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>PositionsManager</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>1019</v>
-      </c>
       <c r="H52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,63 +5171,63 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.22460532608560083</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD52">
-        <v>1.0974349786358548</v>
+        <v>0.025318554190752456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>morpho/morpho-v1-main/src/compound/RewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>RewardsManager</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5242,19 +5242,19 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -5263,42 +5263,42 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB53">
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.052060189575599936</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD53">
-        <v>0.5191408781766117</v>
+        <v>0.05103649710282751</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IIncentivesVault.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IIncentivesVault</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -5358,116 +5358,116 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>0.010021134202183868</v>
       </c>
       <c r="AD54">
-        <v>0.1132864971028275</v>
+        <v>0.06681855419075246</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IInterestRatesManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IInterestRatesManager</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>62</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>76</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>62</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
       <c r="AB55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>0.010021134202183868</v>
       </c>
       <c r="AD55">
-        <v>0.12906855419075247</v>
+        <v>0.2178975520780609</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IMorpho.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IMorpho</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5542,39 +5542,39 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>0.010021134202183868</v>
       </c>
       <c r="AD56">
-        <v>0.3008975520780609</v>
+        <v>0.014943554190752453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IOracle.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IOracle</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5637,36 +5637,36 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.010021134202183868</v>
+        <v>0.015410355759070094</v>
       </c>
       <c r="AD57">
-        <v>0.056443554190752455</v>
+        <v>0.04794114536973478</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IPositionsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IPositionsManager</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5726,39 +5726,39 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.015410355759070094</v>
+        <v>0.012074170985759572</v>
       </c>
       <c r="AD58">
-        <v>0.11019114536973477</v>
+        <v>0.04965773029541432</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IRewardsManager.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IRewardsManager</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -5818,45 +5818,45 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.012074170985759572</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD59">
-        <v>0.13265773029541433</v>
+        <v>0.03839375757286905</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/IWETH.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IWETH</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5880,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
         <v>2</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5907,42 +5907,42 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.010021134202183868</v>
+        <v>0.04321656460833988</v>
       </c>
       <c r="AD60">
-        <v>0.03839375757286905</v>
+        <v>0.229034870555211</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ICEth</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -6002,45 +6002,45 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.010273261526482638</v>
+        <v>0.014656569214512152</v>
       </c>
       <c r="AD61">
-        <v>0.14737682713799358</v>
+        <v>0.2016846058936535</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>IComptroller</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6073,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -6091,42 +6091,42 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.013001220541133873</v>
+        <v>0.13356906097307647</v>
       </c>
       <c r="AD62">
-        <v>0.23881930924621064</v>
+        <v>0.43447379700383937</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>IInterestRateModel</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6165,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6183,48 +6183,48 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC63">
         <v>0.015410355759070096</v>
       </c>
       <c r="AD63">
-        <v>0.1071156753152625</v>
+        <v>0.3530329971471865</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
       </c>
       <c r="B64" t="str">
-        <v>ICToken</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -6275,81 +6275,81 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.010696706135240831</v>
+        <v>0.02337811008998047</v>
       </c>
       <c r="AD64">
-        <v>0.20472937727318863</v>
+        <v>0.1752994192027982</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
       </c>
       <c r="B65" t="str">
-        <v>ICEther</v>
+        <v>RatesLens</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>5</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -6367,82 +6367,82 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.010021134202183868</v>
+        <v>0.06605444841839699</v>
       </c>
       <c r="AD65">
-        <v>0.14214375757286907</v>
+        <v>0.3577148116714778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>morpho/morpho-v1-main/src/compound/interfaces/compound/ICompound.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
       </c>
       <c r="B66" t="str">
-        <v>ICompoundOracle</v>
+        <v>RewardsLens</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <v>3</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
       <c r="U66">
         <v>0</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -6459,82 +6459,82 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.010021134202183868</v>
+        <v>0.07473098405645077</v>
       </c>
       <c r="AD66">
-        <v>0.11869355419075245</v>
+        <v>0.27061509748739876</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/IndexesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
       </c>
       <c r="B67" t="str">
-        <v>IndexesLens</v>
+        <v>UsersLens</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
         <v>5</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>147</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>2</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
       <c r="U67">
         <v>0</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -6551,140 +6551,140 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AA67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.04321656460833988</v>
+        <v>0.08255940873111378</v>
       </c>
       <c r="AD67">
-        <v>0.229034870555211</v>
+        <v>0.4236538909601194</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/Lens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
       </c>
       <c r="B68" t="str">
-        <v>Lens</v>
+        <v>CompoundMath</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>4</v>
       </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>87</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>5</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>16</v>
-      </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.13356906097307647</v>
+        <v>0.025563094883278046</v>
       </c>
       <c r="AD68">
-        <v>0.43447379700383937</v>
+        <v>0.1437332869374633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/LensStorage.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B69" t="str">
-        <v>LensStorage</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6714,19 +6714,19 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -6735,27 +6735,27 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AA69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.015410355759070096</v>
+        <v>0.07383969617326434</v>
       </c>
       <c r="AD69">
-        <v>0.3737829971471865</v>
+        <v>0.2529101050790395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/MarketsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
       </c>
       <c r="B70" t="str">
-        <v>MarketsLens</v>
+        <v>Types</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6764,19 +6764,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -6827,27 +6827,27 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.02337811008998047</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>0.1960494192027982</v>
+        <v>0.19155972259394732</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/RatesLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
       </c>
       <c r="B71" t="str">
-        <v>RatesLens</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6856,16 +6856,16 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6892,16 +6892,16 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -6919,27 +6919,27 @@
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="AA71">
         <v>1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.06605444841839699</v>
+        <v>0.23988373447029665</v>
       </c>
       <c r="AD71">
-        <v>0.3784648116714777</v>
+        <v>0.5421510460494172</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/RewardsLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\Morpho.sol</v>
       </c>
       <c r="B72" t="str">
-        <v>RewardsLens</v>
+        <v>Morpho</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6948,25 +6948,25 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -6984,16 +6984,16 @@
         <v>0</v>
       </c>
       <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
         <v>4</v>
       </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
       <c r="T72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -7002,100 +7002,100 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AA72">
         <v>1</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.07473098405645077</v>
+        <v>0.02531457509527934</v>
       </c>
       <c r="AD72">
-        <v>0.2913650974873987</v>
+        <v>0.305812725672489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/UsersLens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
       </c>
       <c r="B73" t="str">
-        <v>UsersLens</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
         <v>15</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>461</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>7</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>3</v>
-      </c>
-      <c r="T73">
-        <v>5</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>21</v>
-      </c>
       <c r="X73">
         <v>0</v>
       </c>
@@ -7103,42 +7103,42 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AA73">
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.08255940873111378</v>
+        <v>0.05515736868215736</v>
       </c>
       <c r="AD73">
-        <v>0.47552889096011947</v>
+        <v>0.5353655029329812</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>morpho/morpho-v1-main/src/compound/lens/interfaces/ILens.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
       </c>
       <c r="B74" t="str">
-        <v>ILens</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -7198,46 +7198,46 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.014656569214512152</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD74">
-        <v>0.2120596058936535</v>
+        <v>0.5401481038958937</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/CompoundMath.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
       </c>
       <c r="B75" t="str">
-        <v>CompoundMath</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="E75">
-        <v>7</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>45</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
         <v>2</v>
       </c>
@@ -7245,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -7266,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -7287,57 +7287,57 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.025563094883278046</v>
+        <v>0.05658421763454346</v>
       </c>
       <c r="AD75">
-        <v>0.20598328693746332</v>
+        <v>0.42635514603125024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/InterestRatesModel.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
       </c>
       <c r="B76" t="str">
-        <v>InterestRatesModel</v>
+        <v>PositionsManager</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>194</v>
+        <v>1019</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7358,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -7379,27 +7379,27 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="AA76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.07383969617326434</v>
+        <v>0.22460532608560083</v>
       </c>
       <c r="AD76">
-        <v>0.29441010507903953</v>
+        <v>1.0974349786358548</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>morpho/morpho-v1-main/src/compound/libraries/Types.sol</v>
+        <v>morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
       </c>
       <c r="B77" t="str">
-        <v>Types</v>
+        <v>RewardsManager</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7408,40 +7408,40 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -7450,19 +7450,19 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -7471,19 +7471,19 @@
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>0.052060189575599936</v>
       </c>
       <c r="AD77">
-        <v>0.24343472259394733</v>
+        <v>0.5087658781766117</v>
       </c>
     </row>
     <row r="78">
@@ -7569,13 +7569,13 @@
         <v>155</v>
       </c>
       <c r="AB78">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>3.4707240369442096</v>
+        <v>3.4707240369442087</v>
       </c>
       <c r="AD78">
-        <v>22.046836560616526</v>
+        <v>19.328586560616536</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -571,57 +571,57 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.2617606308606661</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD2">
-        <v>0.6146700027126779</v>
+        <v>0.023818693428655287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -663,57 +663,57 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.22435744219382825</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD3">
-        <v>0.8678951024472327</v>
+        <v>0.023818693428655287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -755,27 +755,27 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.038899999198205304</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD4">
-        <v>0.5196029155584239</v>
+        <v>0.024354407714369572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -847,42 +847,42 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.15420594251058325</v>
+        <v>0.005919339028147319</v>
       </c>
       <c r="AD5">
-        <v>0.3846646752077302</v>
+        <v>0.09193466521954904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -948,36 +948,36 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.011697780908770694</v>
+        <v>0.006472016057508287</v>
       </c>
       <c r="AD6">
-        <v>0.04758870344872754</v>
+        <v>0.14146031013270693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1034,24 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.012057062345896444</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.13437413452634586</v>
+        <v>0.11633333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1126,39 +1126,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.012615944581425384</v>
+        <v>0.01441674835457219</v>
       </c>
       <c r="AD8">
-        <v>0.15387422233288003</v>
+        <v>0.02881357877522507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.010819537395796643</v>
+        <v>0.009087362714305722</v>
       </c>
       <c r="AD9">
-        <v>0.0664819489818678</v>
+        <v>0.10805183275888935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1310,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.013214746976634967</v>
+        <v>0.010271670634364936</v>
       </c>
       <c r="AD10">
-        <v>0.2004659654660564</v>
+        <v>0.039881162561461306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.010021134202183868</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.10289372233979419</v>
+        <v>0.1066904761904762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,53 +1428,53 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
@@ -1500,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.010021134202183868</v>
+        <v>0.005090323484105868</v>
       </c>
       <c r="AD12">
-        <v>0.015385163611753435</v>
+        <v>0.08135453118314549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1592,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.010021134202183868</v>
+        <v>0.007162862344209495</v>
       </c>
       <c r="AD13">
-        <v>0.033074211200324215</v>
+        <v>0.03466994563923372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.01217682282493836</v>
+        <v>0.00969596539544726</v>
       </c>
       <c r="AD14">
-        <v>0.09433014614635733</v>
+        <v>0.13371109593565195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1776,18 +1776,18 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.016009158154279675</v>
+        <v>0.13888250945245764</v>
       </c>
       <c r="AD15">
-        <v>0.024834777286639555</v>
+        <v>0.21118700193822504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1868,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.015110954561465304</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.03040775778664328</v>
+        <v>0.009045238095238096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.010021134202183868</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.025318554190752456</v>
+        <v>0.014757142857142858</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.010021134202183868</v>
+        <v>0.1306734796501636</v>
       </c>
       <c r="AD18">
-        <v>0.05103649710282751</v>
+        <v>0.19177680225547972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.010021134202183868</v>
+        <v>0.03097010222657891</v>
       </c>
       <c r="AD19">
-        <v>0.09794355419075246</v>
+        <v>0.05472581586822742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2227,45 +2227,45 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.010021134202183868</v>
+        <v>0.01202772720907436</v>
       </c>
       <c r="AD20">
-        <v>0.26377729674493705</v>
+        <v>0.11477067889881293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2328,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.010021134202183868</v>
+        <v>0.07950497129253606</v>
       </c>
       <c r="AD21">
-        <v>0.025318554190752456</v>
+        <v>0.3841734580026652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Position.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2411,42 +2411,42 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.012074170985759572</v>
+        <v>0.05446552770386967</v>
       </c>
       <c r="AD22">
-        <v>0.038268104205613294</v>
+        <v>0.13524398445997668</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2512,125 +2512,125 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.010021134202183868</v>
+        <v>0.011562339541614154</v>
       </c>
       <c r="AD23">
-        <v>0.04876875757286905</v>
+        <v>0.09258062806533485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>215</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>46</v>
+      </c>
+      <c r="AA24">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>113</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>22</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.04321656460833988</v>
+        <v>0.04235777552163563</v>
       </c>
       <c r="AD24">
-        <v>0.19945962611944623</v>
+        <v>0.31184826748441197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2687,45 +2687,45 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.014656569214512152</v>
+        <v>0.20598643980768333</v>
       </c>
       <c r="AD25">
-        <v>0.18946230781796122</v>
+        <v>0.26033937863211914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,42 +2779,42 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.13356906097307647</v>
+        <v>0.03737718028909738</v>
       </c>
       <c r="AD26">
-        <v>0.45051087267364953</v>
+        <v>0.2125952002545106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2871,48 +2871,48 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.015410355759070096</v>
+        <v>0.037674060070433134</v>
       </c>
       <c r="AD27">
-        <v>0.3499189168095873</v>
+        <v>0.11855587525269842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2963,48 +2963,48 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.02337811008998047</v>
+        <v>0.3301519200547698</v>
       </c>
       <c r="AD28">
-        <v>0.19358170113186185</v>
+        <v>0.48869199447895095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -3055,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.06605444841839699</v>
+        <v>0.02554264108668254</v>
       </c>
       <c r="AD29">
-        <v>0.37926739460257686</v>
+        <v>0.055913613943886054</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,45 +3147,45 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.08255940873111378</v>
+        <v>0.01783490980382172</v>
       </c>
       <c r="AD30">
-        <v>0.4572804892375649</v>
+        <v>0.036586427263189704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
+        <v>uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3209,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3248,33 +3248,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.011615047690177224</v>
       </c>
       <c r="AD31">
-        <v>0.11552177317829919</v>
+        <v>0.19437956357131203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3331,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>0.01937053633944826</v>
       </c>
       <c r="AD32">
-        <v>0.20370116027795124</v>
+        <v>0.07177158837506986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,42 +3423,42 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.023592654263665188</v>
+        <v>0.00819913177426131</v>
       </c>
       <c r="AD33">
-        <v>0.255211290621952</v>
+        <v>0.071884416152302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3524,73 +3524,73 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.06960197252553717</v>
+        <v>0.05954154932134207</v>
       </c>
       <c r="AD34">
-        <v>0.14486085081515077</v>
+        <v>0.17432819657833531</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3607,27 +3607,27 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.07383969617326434</v>
+        <v>0.011307940064416749</v>
       </c>
       <c r="AD35">
-        <v>0.2501593583660869</v>
+        <v>0.0473754812456821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3699,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>0.00819913177426131</v>
       </c>
       <c r="AD36">
-        <v>0.1931789571376176</v>
+        <v>0.04498103450978992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3800,73 +3800,73 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.23988373447029665</v>
+        <v>0.0222083741772861</v>
       </c>
       <c r="AD37">
-        <v>0.49095280508344774</v>
+        <v>0.14108144933963807</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>11</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3892,90 +3892,90 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.02531457509527934</v>
+        <v>0.007162862344209495</v>
       </c>
       <c r="AD38">
-        <v>0.24719207178651947</v>
+        <v>0.09408983866890935</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>6</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>26</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>19</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>85</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -3984,33 +3984,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.05515736868215736</v>
+        <v>0.043561826074779444</v>
       </c>
       <c r="AD39">
-        <v>0.6244607018820856</v>
+        <v>0.1114817463928133</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,34 +4025,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>14</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4067,90 +4067,90 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.010021134202183868</v>
+        <v>0.0075082854875601</v>
       </c>
       <c r="AD40">
-        <v>0.58793898556661</v>
+        <v>0.18765607809229007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>317</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4159,57 +4159,57 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.05658421763454346</v>
+        <v>0.022544727868562063</v>
       </c>
       <c r="AD41">
-        <v>0.5779050121855915</v>
+        <v>0.44597120415037755</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4251,63 +4251,63 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.026742414492282405</v>
+        <v>0.025501852703925243</v>
       </c>
       <c r="AD42">
-        <v>0.24711018168207063</v>
+        <v>0.3406993082730235</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AA43">
         <v>3</v>
@@ -4352,33 +4352,33 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.05800782081602793</v>
+        <v>0.06079862893982064</v>
       </c>
       <c r="AD43">
-        <v>0.32186280135399525</v>
+        <v>0.5391858885061648</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4444,48 +4444,48 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.01121873899260303</v>
+        <v>0.013380478924520375</v>
       </c>
       <c r="AD44">
-        <v>0.23273937039605658</v>
+        <v>0.13675749335532453</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4527,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.038899999198205304</v>
+        <v>0.18015314537335264</v>
       </c>
       <c r="AD45">
-        <v>0.48817212628083895</v>
+        <v>0.24536129864861397</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4562,47 +4562,47 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4619,42 +4619,42 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.15420594251058325</v>
+        <v>0.019079960789805353</v>
       </c>
       <c r="AD46">
-        <v>0.3602247608943251</v>
+        <v>0.056970293737586476</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.010273261526482638</v>
+        <v>0.03324534378938524</v>
       </c>
       <c r="AD47">
-        <v>0.06437682713799359</v>
+        <v>0.3417732074779023</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4803,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.013001220541133873</v>
+        <v>0.02821209221468289</v>
       </c>
       <c r="AD48">
-        <v>0.15581930924621065</v>
+        <v>0.35386900104508</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,57 +4895,57 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.015410355759070096</v>
+        <v>0.044171567940998</v>
       </c>
       <c r="AD49">
-        <v>0.0241156753152625</v>
+        <v>0.17047417032809975</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4987,30 +4987,30 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.010696706135240831</v>
+        <v>0.04913215028500003</v>
       </c>
       <c r="AD50">
-        <v>0.12172937727318864</v>
+        <v>0.21420506117110352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,27 +5079,27 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.010021134202183868</v>
+        <v>0.03115214955888531</v>
       </c>
       <c r="AD51">
-        <v>0.059143757572869056</v>
+        <v>0.10075505766643557</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,48 +5171,48 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.010021134202183868</v>
+        <v>0.09007513990674614</v>
       </c>
       <c r="AD52">
-        <v>0.025318554190752456</v>
+        <v>0.22606393291445367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5272,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.010021134202183868</v>
+        <v>0.00983895812911357</v>
       </c>
       <c r="AD53">
-        <v>0.05103649710282751</v>
+        <v>0.1300916651522586</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5355,42 +5355,42 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.010021134202183868</v>
+        <v>0.0546593225349702</v>
       </c>
       <c r="AD54">
-        <v>0.06681855419075246</v>
+        <v>0.09154877119669419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5447,42 +5447,42 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.010021134202183868</v>
+        <v>0.026487886850581153</v>
       </c>
       <c r="AD55">
-        <v>0.2178975520780609</v>
+        <v>0.08783495251575224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5539,27 +5539,27 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.010021134202183868</v>
+        <v>0.007853708630910705</v>
       </c>
       <c r="AD56">
-        <v>0.014943554190752453</v>
+        <v>0.09610697935141957</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5631,48 +5631,48 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.015410355759070094</v>
+        <v>0.08093765073363521</v>
       </c>
       <c r="AD57">
-        <v>0.04794114536973478</v>
+        <v>0.30717535076911123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\TickTest.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5732,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.012074170985759572</v>
+        <v>0.014762171497922796</v>
       </c>
       <c r="AD58">
-        <v>0.04965773029541432</v>
+        <v>0.15797579818480315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5755,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5815,91 +5815,91 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.010021134202183868</v>
+        <v>0.03426095784904075</v>
       </c>
       <c r="AD59">
-        <v>0.03839375757286905</v>
+        <v>0.11732952510626149</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
+        <v>uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>147</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -5907,42 +5907,42 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.04321656460833988</v>
+        <v>0.03813296457078841</v>
       </c>
       <c r="AD60">
-        <v>0.229034870555211</v>
+        <v>0.08006044404714369</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5957,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5981,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5999,90 +5999,90 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.014656569214512152</v>
+        <v>0.0719996226796745</v>
       </c>
       <c r="AD61">
-        <v>0.2016846058936535</v>
+        <v>0.48123583912636897</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>840</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.13356906097307647</v>
+        <v>0.10073072640861933</v>
       </c>
       <c r="AD62">
-        <v>0.43447379700383937</v>
+        <v>1.6053534225939898</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
+        <v>uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6162,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6186,87 +6186,87 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.015410355759070096</v>
+        <v>0.015453017784624004</v>
       </c>
       <c r="AD63">
-        <v>0.3530329971471865</v>
+        <v>0.08050090988180612</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
-      </c>
-      <c r="B64" t="str">
-        <v>MarketsLens</v>
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G64">
-        <v>170</v>
+        <v>4572</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -6275,1312 +6275,24 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>21</v>
+        <v>916</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="AB64">
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.02337811008998047</v>
+        <v>2.5020729863493254</v>
       </c>
       <c r="AD64">
-        <v>0.1752994192027982</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
-      </c>
-      <c r="B65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>443</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>16</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>89</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0.06605444841839699</v>
-      </c>
-      <c r="AD65">
-        <v>0.3577148116714778</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
-      </c>
-      <c r="B66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>171</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>28</v>
-      </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0.07473098405645077</v>
-      </c>
-      <c r="AD66">
-        <v>0.27061509748739876</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
-      </c>
-      <c r="B67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>461</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>21</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>78</v>
-      </c>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0.08255940873111378</v>
-      </c>
-      <c r="AD67">
-        <v>0.4236538909601194</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
-      </c>
-      <c r="B68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>4</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0.025563094883278046</v>
-      </c>
-      <c r="AD68">
-        <v>0.1437332869374633</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
-      </c>
-      <c r="B69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>194</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>33</v>
-      </c>
-      <c r="AA69">
-        <v>4</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0.07383969617326434</v>
-      </c>
-      <c r="AD69">
-        <v>0.2529101050790395</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>86</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0.19155972259394732</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
-      </c>
-      <c r="B71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>376</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>6</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>39</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>64</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0.23988373447029665</v>
-      </c>
-      <c r="AD71">
-        <v>0.5421510460494172</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>morpho\morpho-v1-main\src\compound\Morpho.sol</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>237</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>4</v>
-      </c>
-      <c r="T72">
-        <v>12</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>4</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>35</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0.02531457509527934</v>
-      </c>
-      <c r="AD72">
-        <v>0.305812725672489</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
-      </c>
-      <c r="B73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>477</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>15</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>71</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0.05515736868215736</v>
-      </c>
-      <c r="AD73">
-        <v>0.5353655029329812</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
-      </c>
-      <c r="B74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>17</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>9</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0.010021134202183868</v>
-      </c>
-      <c r="AD74">
-        <v>0.5401481038958937</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
-      </c>
-      <c r="B75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>212</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>6</v>
-      </c>
-      <c r="T75">
-        <v>5</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>16</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>39</v>
-      </c>
-      <c r="AA75">
-        <v>5</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0.05658421763454346</v>
-      </c>
-      <c r="AD75">
-        <v>0.42635514603125024</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
-      </c>
-      <c r="B76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1019</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>19</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>9</v>
-      </c>
-      <c r="T76">
-        <v>6</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>99</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>241</v>
-      </c>
-      <c r="AA76">
-        <v>3</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0.22460532608560083</v>
-      </c>
-      <c r="AD76">
-        <v>1.0974349786358548</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
-      </c>
-      <c r="B77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>247</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>6</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>13</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>34</v>
-      </c>
-      <c r="AA77">
-        <v>4</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0.052060189575599936</v>
-      </c>
-      <c r="AD77">
-        <v>0.5087658781766117</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>108</v>
-      </c>
-      <c r="D78">
-        <v>45</v>
-      </c>
-      <c r="E78">
-        <v>795</v>
-      </c>
-      <c r="F78">
-        <v>216</v>
-      </c>
-      <c r="G78">
-        <v>12054</v>
-      </c>
-      <c r="H78">
-        <v>50</v>
-      </c>
-      <c r="I78">
-        <v>77</v>
-      </c>
-      <c r="J78">
-        <v>62</v>
-      </c>
-      <c r="K78">
-        <v>121</v>
-      </c>
-      <c r="L78">
-        <v>50</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>37</v>
-      </c>
-      <c r="O78">
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>28</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>132</v>
-      </c>
-      <c r="T78">
-        <v>624</v>
-      </c>
-      <c r="U78">
-        <v>11</v>
-      </c>
-      <c r="V78">
-        <v>14</v>
-      </c>
-      <c r="W78">
-        <v>531</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-      <c r="Z78">
-        <v>1609</v>
-      </c>
-      <c r="AA78">
-        <v>155</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>3.4707240369442087</v>
-      </c>
-      <c r="AD78">
-        <v>19.328586560616536</v>
+        <v>11.19401320217814</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD64"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>EntryPositionsManager</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -571,57 +571,57 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.009235401204313123</v>
+        <v>0.2617606308606661</v>
       </c>
       <c r="AD2">
-        <v>0.023818693428655287</v>
+        <v>0.4026469816012339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>ExitPositionsManager</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -663,119 +663,119 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.009235401204313123</v>
+        <v>0.22435744219382825</v>
       </c>
       <c r="AD3">
-        <v>0.023818693428655287</v>
+        <v>0.5220637211722018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>134</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>16</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.009235401204313123</v>
+        <v>0.038899999198205304</v>
       </c>
       <c r="AD4">
-        <v>0.024354407714369572</v>
+        <v>0.17380178870575588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>IERC20Minimal</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -847,42 +847,42 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.005919339028147319</v>
+        <v>0.15420594251058325</v>
       </c>
       <c r="AD5">
-        <v>0.09193466521954904</v>
+        <v>0.2652498473330971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -948,73 +948,73 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006472016057508287</v>
+        <v>0.011697780908770694</v>
       </c>
       <c r="AD6">
-        <v>0.14146031013270693</v>
+        <v>0.024030337177317788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -1034,24 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.012057062345896444</v>
       </c>
       <c r="AD7">
-        <v>0.11633333333333333</v>
+        <v>0.04301422016534455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1126,39 +1126,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01441674835457219</v>
+        <v>0.012615944581425384</v>
       </c>
       <c r="AD8">
-        <v>0.02881357877522507</v>
+        <v>0.05940327371627922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.009087362714305722</v>
+        <v>0.010819537395796643</v>
       </c>
       <c r="AD9">
-        <v>0.10805183275888935</v>
+        <v>0.02936327309253972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1310,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.010271670634364936</v>
+        <v>0.013214746976634967</v>
       </c>
       <c r="AD10">
-        <v>0.039881162561461306</v>
+        <v>0.10770489827238051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD11">
-        <v>0.1066904761904762</v>
+        <v>0.03041374869025531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,14 +1428,14 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1500,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.005090323484105868</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD12">
-        <v>0.08135453118314549</v>
+        <v>0.013295308539289665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1592,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.007162862344209495</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD13">
-        <v>0.03466994563923372</v>
+        <v>0.017792145982932907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.00969596539544726</v>
+        <v>0.01217682282493836</v>
       </c>
       <c r="AD14">
-        <v>0.13371109593565195</v>
+        <v>0.041276325329493026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>BitMath</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1776,18 +1776,18 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.13888250945245764</v>
+        <v>0.016009158154279675</v>
       </c>
       <c r="AD15">
-        <v>0.21118700193822504</v>
+        <v>0.020655067141712016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>FixedPoint128</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1868,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>0.015110954561465304</v>
       </c>
       <c r="AD16">
-        <v>0.009045238095238096</v>
+        <v>0.02204833749678821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>FixedPoint96</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD17">
-        <v>0.014757142857142858</v>
+        <v>0.014216199118288685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>FullMath</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.1306734796501636</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD18">
-        <v>0.19177680225547972</v>
+        <v>0.02804809130572606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>LiquidityMath</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.03097010222657891</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD19">
-        <v>0.05472581586822742</v>
+        <v>0.023753699118288688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2227,45 +2227,45 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.01202772720907436</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD20">
-        <v>0.11477067889881293</v>
+        <v>0.11957729674493704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>Oracle</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>315</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2328,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.07950497129253606</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD21">
-        <v>0.3841734580026652</v>
+        <v>0.014216199118288685</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Position.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>Position</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2411,43 +2411,43 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.05446552770386967</v>
+        <v>0.012074170985759572</v>
       </c>
       <c r="AD22">
-        <v>0.13524398445997668</v>
+        <v>0.02781882884329446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>SafeCast</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2512,39 +2512,39 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.011562339541614154</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD23">
-        <v>0.09258062806533485</v>
+        <v>0.017551547427941513</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2595,42 +2595,42 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.04235777552163563</v>
+        <v>0.04321656460833988</v>
       </c>
       <c r="AD24">
-        <v>0.31184826748441197</v>
+        <v>0.10457641763645648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>SwapMath</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2687,45 +2687,45 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.20598643980768333</v>
+        <v>0.014656569214512152</v>
       </c>
       <c r="AD25">
-        <v>0.26033937863211914</v>
+        <v>0.09476574984694673</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Tick</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,42 +2779,42 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.03737718028909738</v>
+        <v>0.13356906097307647</v>
       </c>
       <c r="AD26">
-        <v>0.2125952002545106</v>
+        <v>0.1969878532497515</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>TickBitmap</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2871,48 +2871,48 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.037674060070433134</v>
+        <v>0.015410355759070096</v>
       </c>
       <c r="AD27">
-        <v>0.11855587525269842</v>
+        <v>0.15150771852646744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>TickMath</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2963,91 +2963,91 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.3301519200547698</v>
+        <v>0.02337811008998047</v>
       </c>
       <c r="AD28">
-        <v>0.48869199447895095</v>
+        <v>0.08367951751506973</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>TransferHelper</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>16</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -3055,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.02554264108668254</v>
+        <v>0.06605444841839699</v>
       </c>
       <c r="AD29">
-        <v>0.055913613943886054</v>
+        <v>0.21393861154832877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UnsafeMath</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,45 +3147,45 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.01783490980382172</v>
+        <v>0.08255940873111378</v>
       </c>
       <c r="AD30">
-        <v>0.036586427263189704</v>
+        <v>0.23747355994099095</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>NoDelegateCall</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3209,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3248,33 +3248,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.011615047690177224</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.19437956357131203</v>
+        <v>0.02375813681466282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3331,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.01937053633944826</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.07177158837506986</v>
+        <v>0.04147616027795125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>BitMathTest</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,42 +3423,42 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.00819913177426131</v>
+        <v>0.023592654263665188</v>
       </c>
       <c r="AD33">
-        <v>0.071884416152302</v>
+        <v>0.12859035370451866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3524,39 +3524,39 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.05954154932134207</v>
+        <v>0.06960197252553717</v>
       </c>
       <c r="AD34">
-        <v>0.17432819657833531</v>
+        <v>0.08826615055164615</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>FullMathTest</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3607,27 +3607,27 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.011307940064416749</v>
+        <v>0.07383969617326434</v>
       </c>
       <c r="AD35">
-        <v>0.0473754812456821</v>
+        <v>0.17721542607911828</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3636,17 +3636,17 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>97</v>
+      </c>
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3699,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.00819913177426131</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.04498103450978992</v>
+        <v>0.039966457137617595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3800,72 +3800,72 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.0222083741772861</v>
+        <v>0.23988373447029665</v>
       </c>
       <c r="AD37">
-        <v>0.14108144933963807</v>
+        <v>0.36144408954542273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>235</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3892,45 +3892,45 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.007162862344209495</v>
+        <v>0.02531457509527934</v>
       </c>
       <c r="AD38">
-        <v>0.09408983866890935</v>
+        <v>0.10018608150710037</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -3984,33 +3984,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.043561826074779444</v>
+        <v>0.05515736868215736</v>
       </c>
       <c r="AD39">
-        <v>0.1114817463928133</v>
+        <v>0.25160688810097853</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,34 +4025,34 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4067,149 +4067,149 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.0075082854875601</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD40">
-        <v>0.18765607809229007</v>
+        <v>0.17512883744214278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>317</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>13</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>131</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>23</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>40</v>
+      </c>
+      <c r="AA41">
         <v>9</v>
       </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>24</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>56</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.022544727868562063</v>
+        <v>0.05658421763454346</v>
       </c>
       <c r="AD41">
-        <v>0.44597120415037755</v>
+        <v>0.2849004466488182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>OracleTest</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4251,63 +4251,63 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.025501852703925243</v>
+        <v>0.026742414492282405</v>
       </c>
       <c r="AD42">
-        <v>0.3406993082730235</v>
+        <v>0.0959075161479156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>RewardsDistributor</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AA43">
         <v>3</v>
@@ -4352,33 +4352,33 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.06079862893982064</v>
+        <v>0.05800782081602793</v>
       </c>
       <c r="AD43">
-        <v>0.5391858885061648</v>
+        <v>0.13449662864549788</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>FakeToken</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4444,48 +4444,48 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.013380478924520375</v>
+        <v>0.01121873899260303</v>
       </c>
       <c r="AD44">
-        <v>0.13675749335532453</v>
+        <v>0.05085791766287959</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4527,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.18015314537335264</v>
+        <v>0.038899999198205304</v>
       </c>
       <c r="AD45">
-        <v>0.24536129864861397</v>
+        <v>0.17031348905472707</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>SwapMathTest</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4562,22 +4562,22 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4619,42 +4619,42 @@
         <v>0</v>
       </c>
       <c r="Z46">
+        <v>31</v>
+      </c>
+      <c r="AA46">
         <v>4</v>
       </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.019079960789805353</v>
+        <v>0.15420594251058325</v>
       </c>
       <c r="AD46">
-        <v>0.056970293737586476</v>
+        <v>0.24200661351761732</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>TestERC20</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.03324534378938524</v>
+        <v>0.010273261526482638</v>
       </c>
       <c r="AD47">
-        <v>0.3417732074779023</v>
+        <v>0.024669580761181975</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4803,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.02821209221468289</v>
+        <v>0.013001220541133873</v>
       </c>
       <c r="AD48">
-        <v>0.35386900104508</v>
+        <v>0.059400995675723156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,57 +4895,57 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.044171567940998</v>
+        <v>0.015410355759070096</v>
       </c>
       <c r="AD49">
-        <v>0.17047417032809975</v>
+        <v>0.019935965170334965</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4987,30 +4987,30 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.04913215028500003</v>
+        <v>0.010696706135240831</v>
       </c>
       <c r="AD50">
-        <v>0.21420506117110352</v>
+        <v>0.04022502944710167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,27 +5079,27 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.03115214955888531</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD51">
-        <v>0.10075505766643557</v>
+        <v>0.018914047427941512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>42</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,48 +5171,48 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.09007513990674614</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD52">
-        <v>0.22606393291445367</v>
+        <v>0.014216199118288685</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5272,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.00983895812911357</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD53">
-        <v>0.1300916651522586</v>
+        <v>0.02804809130572606</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5355,42 +5355,42 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.0546593225349702</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD54">
-        <v>0.09154877119669419</v>
+        <v>0.019666199118288687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5447,42 +5447,42 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.026487886850581153</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD55">
-        <v>0.08783495251575224</v>
+        <v>0.0883265375853073</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>TickMathTest</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5539,27 +5539,27 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.007853708630910705</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD56">
-        <v>0.09610697935141957</v>
+        <v>0.012853699118288684</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5631,48 +5631,48 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.08093765073363521</v>
+        <v>0.015410355759070094</v>
       </c>
       <c r="AD57">
-        <v>0.30717535076911123</v>
+        <v>0.026389514934952167</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>uniswap\v3-core-main\contracts\test\TickTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>TickTest</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5732,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.014762171497922796</v>
+        <v>0.012074170985759572</v>
       </c>
       <c r="AD58">
-        <v>0.15797579818480315</v>
+        <v>0.03084903464324041</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5755,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5815,48 +5815,48 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.03426095784904075</v>
+        <v>0.010021134202183868</v>
       </c>
       <c r="AD59">
-        <v>0.11732952510626149</v>
+        <v>0.016189047427941514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5880,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5907,140 +5907,140 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.03813296457078841</v>
+        <v>0.04321656460833988</v>
       </c>
       <c r="AD60">
-        <v>0.08006044404714369</v>
+        <v>0.11368548059298725</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>283</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>44</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>61</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>11</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>21</v>
-      </c>
-      <c r="AA61">
-        <v>4</v>
-      </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.0719996226796745</v>
+        <v>0.014656569214512152</v>
       </c>
       <c r="AD61">
-        <v>0.48123583912636897</v>
+        <v>0.1007184827052477</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>840</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6049,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -6067,23 +6067,23 @@
         <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>5</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>11</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>6</v>
-      </c>
-      <c r="W62">
-        <v>82</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="AA62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.10073072640861933</v>
+        <v>0.13356906097307647</v>
       </c>
       <c r="AD62">
-        <v>1.6053534225939898</v>
+        <v>0.19786243733097866</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6162,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6186,113 +6186,1401 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.015453017784624004</v>
+        <v>0.015410355759070096</v>
       </c>
       <c r="AD63">
-        <v>0.08050090988180612</v>
+        <v>0.13599471898854795</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
+      </c>
+      <c r="B64" t="str">
+        <v>MarketsLens</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>21</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0.02337811008998047</v>
+      </c>
+      <c r="AD64">
+        <v>0.07424565093651643</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
+      </c>
+      <c r="B65" t="str">
+        <v>RatesLens</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>16</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>89</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0.06605444841839699</v>
+      </c>
+      <c r="AD65">
+        <v>0.20142096637656584</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RewardsLens</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>11</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>28</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0.07473098405645077</v>
+      </c>
+      <c r="AD66">
+        <v>0.15143182179749742</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
+      </c>
+      <c r="B67" t="str">
+        <v>UsersLens</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>21</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>78</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0.08255940873111378</v>
+      </c>
+      <c r="AD67">
+        <v>0.2370435155020147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CompoundMath</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0.025563094883278046</v>
+      </c>
+      <c r="AD68">
+        <v>0.05241923091079518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
+      </c>
+      <c r="B69" t="str">
+        <v>InterestRatesModel</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>194</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
+      <c r="AA69">
+        <v>4</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0.07383969617326434</v>
+      </c>
+      <c r="AD69">
+        <v>0.1728058078354508</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Types</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>86</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.03834722259394732</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
+      </c>
+      <c r="B71" t="str">
+        <v>MatchingEngine</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>376</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>39</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>64</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0.23988373447029665</v>
+      </c>
+      <c r="AD71">
+        <v>0.4117448201379482</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Morpho</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>237</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>12</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>35</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0.02531457509527934</v>
+      </c>
+      <c r="AD72">
+        <v>0.10814019982268092</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MorphoGovernance</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>71</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0.05515736868215736</v>
+      </c>
+      <c r="AD73">
+        <v>0.21786429060891827</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MorphoStorage</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <v>56</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>9</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0.010021134202183868</v>
+      </c>
+      <c r="AD74">
+        <v>0.15967692635966177</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MorphoUtils</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>16</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>39</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0.05658421763454346</v>
+      </c>
+      <c r="AD75">
+        <v>0.20462806054892146</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PositionsManager</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1019</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>19</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>99</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>241</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0.22460532608560083</v>
+      </c>
+      <c r="AD76">
+        <v>0.7016249094658943</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
+      </c>
+      <c r="B77" t="str">
+        <v>RewardsManager</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>247</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>13</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>34</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0.052060189575599936</v>
+      </c>
+      <c r="AD77">
+        <v>0.20169492861855726</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <v>45</v>
+      </c>
+      <c r="E78">
+        <v>795</v>
+      </c>
+      <c r="F78">
+        <v>216</v>
+      </c>
+      <c r="G78">
+        <v>12054</v>
+      </c>
+      <c r="H78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>97</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>236</v>
-      </c>
-      <c r="F64">
-        <v>57</v>
-      </c>
-      <c r="G64">
-        <v>4572</v>
-      </c>
-      <c r="H64">
-        <v>13</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>19</v>
-      </c>
-      <c r="L64">
-        <v>23</v>
-      </c>
-      <c r="M64">
+      <c r="K78">
+        <v>121</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="N64">
+      <c r="N78">
+        <v>37</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>28</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>132</v>
+      </c>
+      <c r="T78">
+        <v>624</v>
+      </c>
+      <c r="U78">
         <v>11</v>
       </c>
-      <c r="O64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>7</v>
-      </c>
-      <c r="R64">
-        <v>15</v>
-      </c>
-      <c r="S64">
-        <v>43</v>
-      </c>
-      <c r="T64">
-        <v>166</v>
-      </c>
-      <c r="U64">
-        <v>5</v>
-      </c>
-      <c r="V64">
-        <v>7</v>
-      </c>
-      <c r="W64">
-        <v>559</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>916</v>
-      </c>
-      <c r="AA64">
-        <v>97</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>2.5020729863493254</v>
-      </c>
-      <c r="AD64">
-        <v>11.19401320217814</v>
+      <c r="V78">
+        <v>14</v>
+      </c>
+      <c r="W78">
+        <v>531</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1609</v>
+      </c>
+      <c r="AA78">
+        <v>155</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>3.4707240369442087</v>
+      </c>
+      <c r="AD78">
+        <v>9.348025170063458</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -571,57 +571,57 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.2617606308606661</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD2">
-        <v>0.4026469816012339</v>
+        <v>0.013804804539766399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -663,57 +663,57 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.22435744219382825</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD3">
-        <v>0.5220637211722018</v>
+        <v>0.013804804539766399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -755,27 +755,27 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.038899999198205304</v>
+        <v>0.009235401204313123</v>
       </c>
       <c r="AD4">
-        <v>0.17380178870575588</v>
+        <v>0.014340518825480684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -847,42 +847,42 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.15420594251058325</v>
+        <v>0.005919339028147319</v>
       </c>
       <c r="AD5">
-        <v>0.2652498473330971</v>
+        <v>0.02584299855288237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -948,36 +948,36 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.011697780908770694</v>
+        <v>0.006472016057508287</v>
       </c>
       <c r="AD6">
-        <v>0.024030337177317788</v>
+        <v>0.036743643466040296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1034,24 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.012057062345896444</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.04301422016534455</v>
+        <v>0.04423333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1126,39 +1126,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.012615944581425384</v>
+        <v>0.01441674835457219</v>
       </c>
       <c r="AD8">
-        <v>0.05940327371627922</v>
+        <v>0.01879968988633618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.010819537395796643</v>
+        <v>0.009087362714305722</v>
       </c>
       <c r="AD9">
-        <v>0.02936327309253972</v>
+        <v>0.03795461053666713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1310,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.013214746976634967</v>
+        <v>0.010271670634364936</v>
       </c>
       <c r="AD10">
-        <v>0.10770489827238051</v>
+        <v>0.01985338478368353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.010021134202183868</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.03041374869025531</v>
+        <v>0.0345904761904762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,53 +1428,53 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
@@ -1500,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.010021134202183868</v>
+        <v>0.005090323484105868</v>
       </c>
       <c r="AD12">
-        <v>0.013295308539289665</v>
+        <v>0.021271197849812153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1592,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.010021134202183868</v>
+        <v>0.007162862344209495</v>
       </c>
       <c r="AD13">
-        <v>0.017792145982932907</v>
+        <v>0.014642167861455942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.01217682282493836</v>
+        <v>0.00969596539544726</v>
       </c>
       <c r="AD14">
-        <v>0.041276325329493026</v>
+        <v>0.043586095935651964</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1776,18 +1776,18 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.016009158154279675</v>
+        <v>0.13888250945245764</v>
       </c>
       <c r="AD15">
-        <v>0.020655067141712016</v>
+        <v>0.18201610821841827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1868,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.015110954561465304</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.02204833749678821</v>
+        <v>0.004238571428571428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.010021134202183868</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.014216199118288685</v>
+        <v>0.005143809523809524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.010021134202183868</v>
+        <v>0.1306734796501636</v>
       </c>
       <c r="AD18">
-        <v>0.02804809130572606</v>
+        <v>0.1630537346226295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.010021134202183868</v>
+        <v>0.03097010222657891</v>
       </c>
       <c r="AD19">
-        <v>0.023753699118288688</v>
+        <v>0.039916455964845776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2227,45 +2227,45 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.010021134202183868</v>
+        <v>0.01202772720907436</v>
       </c>
       <c r="AD20">
-        <v>0.11957729674493704</v>
+        <v>0.04744127068625255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2328,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.010021134202183868</v>
+        <v>0.07950497129253606</v>
       </c>
       <c r="AD21">
-        <v>0.014216199118288685</v>
+        <v>0.21365994350991163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Position.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2411,42 +2411,42 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.012074170985759572</v>
+        <v>0.05446552770386967</v>
       </c>
       <c r="AD22">
-        <v>0.02781882884329446</v>
+        <v>0.09360859798654672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2512,125 +2512,125 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.010021134202183868</v>
+        <v>0.011562339541614154</v>
       </c>
       <c r="AD23">
-        <v>0.017551547427941513</v>
+        <v>0.03367283821026239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>215</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>46</v>
+      </c>
+      <c r="AA24">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>113</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>22</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.04321656460833988</v>
+        <v>0.04235777552163563</v>
       </c>
       <c r="AD24">
-        <v>0.10457641763645648</v>
+        <v>0.16421493415107866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2687,45 +2687,45 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.014656569214512152</v>
+        <v>0.20598643980768333</v>
       </c>
       <c r="AD25">
-        <v>0.09476574984694673</v>
+        <v>0.22552712017801288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,42 +2779,42 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.13356906097307647</v>
+        <v>0.03737718028909738</v>
       </c>
       <c r="AD26">
-        <v>0.1969878532497515</v>
+        <v>0.11155443938494536</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2871,48 +2871,48 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.015410355759070096</v>
+        <v>0.037674060070433134</v>
       </c>
       <c r="AD27">
-        <v>0.15150771852646744</v>
+        <v>0.06827246945559697</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2963,48 +2963,48 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.02337811008998047</v>
+        <v>0.3301519200547698</v>
       </c>
       <c r="AD28">
-        <v>0.08367951751506973</v>
+        <v>0.4337263181504486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -3055,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.06605444841839699</v>
+        <v>0.02554264108668254</v>
       </c>
       <c r="AD29">
-        <v>0.21393861154832877</v>
+        <v>0.041104254040504405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,45 +3147,45 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.08255940873111378</v>
+        <v>0.01783490980382172</v>
       </c>
       <c r="AD30">
-        <v>0.23747355994099095</v>
+        <v>0.02356837170763415</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3209,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3248,33 +3248,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.011615047690177224</v>
       </c>
       <c r="AD31">
-        <v>0.02375813681466282</v>
+        <v>0.04175048144570812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3331,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>0.01937053633944826</v>
       </c>
       <c r="AD32">
-        <v>0.04147616027795125</v>
+        <v>0.04383221639439354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,42 +3423,42 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.023592654263665188</v>
+        <v>0.00819913177426131</v>
       </c>
       <c r="AD33">
-        <v>0.12859035370451866</v>
+        <v>0.024812918567760932</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3524,73 +3524,73 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.06960197252553717</v>
+        <v>0.05954154932134207</v>
       </c>
       <c r="AD34">
-        <v>0.08826615055164615</v>
+        <v>0.1301053704913788</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3607,27 +3607,27 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.07383969617326434</v>
+        <v>0.011307940064416749</v>
       </c>
       <c r="AD35">
-        <v>0.17721542607911828</v>
+        <v>0.023018717960657943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3699,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>0.00819913177426131</v>
       </c>
       <c r="AD36">
-        <v>0.039966457137617595</v>
+        <v>0.019728619050852717</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3800,73 +3800,73 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.23988373447029665</v>
+        <v>0.0222083741772861</v>
       </c>
       <c r="AD37">
-        <v>0.36144408954542273</v>
+        <v>0.08086128025751248</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>11</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3892,90 +3892,90 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.02531457509527934</v>
+        <v>0.007162862344209495</v>
       </c>
       <c r="AD38">
-        <v>0.10018608150710037</v>
+        <v>0.02689229035973062</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>6</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>26</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>19</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>85</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -3984,33 +3984,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.05515736868215736</v>
+        <v>0.043561826074779444</v>
       </c>
       <c r="AD39">
-        <v>0.25160688810097853</v>
+        <v>0.05849645653774084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,34 +4025,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>14</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4067,90 +4067,90 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.010021134202183868</v>
+        <v>0.0075082854875601</v>
       </c>
       <c r="AD40">
-        <v>0.17512883744214278</v>
+        <v>0.04049296215026108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>317</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4159,57 +4159,57 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.05658421763454346</v>
+        <v>0.022544727868562063</v>
       </c>
       <c r="AD41">
-        <v>0.2849004466488182</v>
+        <v>0.15990238772525686</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4251,63 +4251,63 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.026742414492282405</v>
+        <v>0.025501852703925243</v>
       </c>
       <c r="AD42">
-        <v>0.0959075161479156</v>
+        <v>0.08799104740345838</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AA43">
         <v>3</v>
@@ -4352,33 +4352,33 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.05800782081602793</v>
+        <v>0.06079862893982064</v>
       </c>
       <c r="AD43">
-        <v>0.13449662864549788</v>
+        <v>0.3752815406800779</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4444,48 +4444,48 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.01121873899260303</v>
+        <v>0.013380478924520375</v>
       </c>
       <c r="AD44">
-        <v>0.05085791766287959</v>
+        <v>0.0460478315195757</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4527,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.038899999198205304</v>
+        <v>0.18015314537335264</v>
       </c>
       <c r="AD45">
-        <v>0.17031348905472707</v>
+        <v>0.22161407642639175</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4562,47 +4562,47 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4619,42 +4619,42 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.15420594251058325</v>
+        <v>0.019079960789805353</v>
       </c>
       <c r="AD46">
-        <v>0.24200661351761732</v>
+        <v>0.03171787827864927</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.010273261526482638</v>
+        <v>0.03324534378938524</v>
       </c>
       <c r="AD47">
-        <v>0.024669580761181975</v>
+        <v>0.09736216883055931</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4803,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.013001220541133873</v>
+        <v>0.02821209221468289</v>
       </c>
       <c r="AD48">
-        <v>0.059400995675723156</v>
+        <v>0.13710873534459694</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,57 +4895,57 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.015410355759070096</v>
+        <v>0.044171567940998</v>
       </c>
       <c r="AD49">
-        <v>0.019935965170334965</v>
+        <v>0.09182595776771327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4987,30 +4987,30 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.010696706135240831</v>
+        <v>0.04913215028500003</v>
       </c>
       <c r="AD50">
-        <v>0.04022502944710167</v>
+        <v>0.10145240416627258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,27 +5079,27 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.010021134202183868</v>
+        <v>0.03115214955888531</v>
       </c>
       <c r="AD51">
-        <v>0.018914047427941512</v>
+        <v>0.059007714671266476</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,48 +5171,48 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.010021134202183868</v>
+        <v>0.09007513990674614</v>
       </c>
       <c r="AD52">
-        <v>0.014216199118288685</v>
+        <v>0.13836963339754546</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5272,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.010021134202183868</v>
+        <v>0.00983895812911357</v>
       </c>
       <c r="AD53">
-        <v>0.02804809130572606</v>
+        <v>0.03570734148076101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5355,42 +5355,42 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.010021134202183868</v>
+        <v>0.0546593225349702</v>
       </c>
       <c r="AD54">
-        <v>0.019666199118288687</v>
+        <v>0.07362328810490673</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5447,42 +5447,42 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.010021134202183868</v>
+        <v>0.026487886850581153</v>
       </c>
       <c r="AD55">
-        <v>0.0883265375853073</v>
+        <v>0.058999928361162864</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5539,27 +5539,27 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.010021134202183868</v>
+        <v>0.007853708630910705</v>
       </c>
       <c r="AD56">
-        <v>0.012853699118288684</v>
+        <v>0.029007703989100724</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5631,48 +5631,48 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.015410355759070094</v>
+        <v>0.08093765073363521</v>
       </c>
       <c r="AD57">
-        <v>0.026389514934952167</v>
+        <v>0.17103622033432858</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickTest.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5732,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.012074170985759572</v>
+        <v>0.014762171497922796</v>
       </c>
       <c r="AD58">
-        <v>0.03084903464324041</v>
+        <v>0.048502223305576096</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5755,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5815,91 +5815,91 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.010021134202183868</v>
+        <v>0.03426095784904075</v>
       </c>
       <c r="AD59">
-        <v>0.016189047427941514</v>
+        <v>0.06462537051688952</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>147</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -5907,42 +5907,42 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.04321656460833988</v>
+        <v>0.03813296457078841</v>
       </c>
       <c r="AD60">
-        <v>0.11368548059298725</v>
+        <v>0.054521917477095366</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5957,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5981,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5999,90 +5999,90 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.014656569214512152</v>
+        <v>0.0719996226796745</v>
       </c>
       <c r="AD61">
-        <v>0.1007184827052477</v>
+        <v>0.1650059357447265</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>840</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.13356906097307647</v>
+        <v>0.10073072640861933</v>
       </c>
       <c r="AD62">
-        <v>0.19786243733097866</v>
+        <v>0.7062492559273235</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6162,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6186,87 +6186,87 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.015410355759070096</v>
+        <v>0.015453017784624004</v>
       </c>
       <c r="AD63">
-        <v>0.13599471898854795</v>
+        <v>0.03640372389146794</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
-      </c>
-      <c r="B64" t="str">
-        <v>MarketsLens</v>
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G64">
-        <v>170</v>
+        <v>4572</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -6275,1312 +6275,24 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>21</v>
+        <v>916</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="AB64">
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.02337811008998047</v>
+        <v>2.5020729863493254</v>
       </c>
       <c r="AD64">
-        <v>0.07424565093651643</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
-      </c>
-      <c r="B65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>443</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>16</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>89</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0.06605444841839699</v>
-      </c>
-      <c r="AD65">
-        <v>0.20142096637656584</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
-      </c>
-      <c r="B66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>171</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>28</v>
-      </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0.07473098405645077</v>
-      </c>
-      <c r="AD66">
-        <v>0.15143182179749742</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
-      </c>
-      <c r="B67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>461</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>21</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>78</v>
-      </c>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0.08255940873111378</v>
-      </c>
-      <c r="AD67">
-        <v>0.2370435155020147</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
-      </c>
-      <c r="B68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>4</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0.025563094883278046</v>
-      </c>
-      <c r="AD68">
-        <v>0.05241923091079518</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
-      </c>
-      <c r="B69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>194</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>33</v>
-      </c>
-      <c r="AA69">
-        <v>4</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0.07383969617326434</v>
-      </c>
-      <c r="AD69">
-        <v>0.1728058078354508</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>86</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0.03834722259394732</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
-      </c>
-      <c r="B71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>376</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>6</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>39</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>64</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0.23988373447029665</v>
-      </c>
-      <c r="AD71">
-        <v>0.4117448201379482</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>237</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>4</v>
-      </c>
-      <c r="T72">
-        <v>12</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>4</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>35</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0.02531457509527934</v>
-      </c>
-      <c r="AD72">
-        <v>0.10814019982268092</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
-      </c>
-      <c r="B73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>477</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>15</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>71</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0.05515736868215736</v>
-      </c>
-      <c r="AD73">
-        <v>0.21786429060891827</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
-      </c>
-      <c r="B74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>17</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>9</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0.010021134202183868</v>
-      </c>
-      <c r="AD74">
-        <v>0.15967692635966177</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
-      </c>
-      <c r="B75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>212</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>6</v>
-      </c>
-      <c r="T75">
-        <v>5</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>16</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>39</v>
-      </c>
-      <c r="AA75">
-        <v>5</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0.05658421763454346</v>
-      </c>
-      <c r="AD75">
-        <v>0.20462806054892146</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
-      </c>
-      <c r="B76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1019</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>19</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>9</v>
-      </c>
-      <c r="T76">
-        <v>6</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>99</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>241</v>
-      </c>
-      <c r="AA76">
-        <v>3</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0.22460532608560083</v>
-      </c>
-      <c r="AD76">
-        <v>0.7016249094658943</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
-      </c>
-      <c r="B77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>247</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>6</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>13</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>34</v>
-      </c>
-      <c r="AA77">
-        <v>4</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0.052060189575599936</v>
-      </c>
-      <c r="AD77">
-        <v>0.20169492861855726</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>108</v>
-      </c>
-      <c r="D78">
-        <v>45</v>
-      </c>
-      <c r="E78">
-        <v>795</v>
-      </c>
-      <c r="F78">
-        <v>216</v>
-      </c>
-      <c r="G78">
-        <v>12054</v>
-      </c>
-      <c r="H78">
-        <v>50</v>
-      </c>
-      <c r="I78">
-        <v>77</v>
-      </c>
-      <c r="J78">
-        <v>62</v>
-      </c>
-      <c r="K78">
-        <v>121</v>
-      </c>
-      <c r="L78">
-        <v>50</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>37</v>
-      </c>
-      <c r="O78">
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>28</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>132</v>
-      </c>
-      <c r="T78">
-        <v>624</v>
-      </c>
-      <c r="U78">
-        <v>11</v>
-      </c>
-      <c r="V78">
-        <v>14</v>
-      </c>
-      <c r="W78">
-        <v>531</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-      <c r="Z78">
-        <v>1609</v>
-      </c>
-      <c r="AA78">
-        <v>155</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>3.4707240369442087</v>
-      </c>
-      <c r="AD78">
-        <v>9.348025170063458</v>
+        <v>5.6715425620815205</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD64"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>IUniswapV3FlashCallback</v>
+        <v>EntryPositionsManager</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -571,57 +571,57 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.009235401204313123</v>
+        <v>0.31781658617692427</v>
       </c>
       <c r="AD2">
-        <v>0.013804804539766399</v>
+        <v>0.4026469816012339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>IUniswapV3MintCallback</v>
+        <v>ExitPositionsManager</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -663,119 +663,119 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.009235401204313123</v>
+        <v>0.26547674420605033</v>
       </c>
       <c r="AD3">
-        <v>0.013804804539766399</v>
+        <v>0.5166150026942636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IUniswapV3SwapCallback</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>134</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>16</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.009235401204313123</v>
+        <v>0.043233948346727</v>
       </c>
       <c r="AD4">
-        <v>0.014340518825480684</v>
+        <v>0.17065809403817855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>IERC20Minimal</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -847,42 +847,42 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.005919339028147319</v>
+        <v>0.19314948399903492</v>
       </c>
       <c r="AD5">
-        <v>0.02584299855288237</v>
+        <v>0.26990692669466515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IUniswapV3Factory</v>
+        <v>IAaveDistributionManager</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -948,73 +948,73 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006472016057508287</v>
+        <v>0.018298696724198663</v>
       </c>
       <c r="AD6">
-        <v>0.036743643466040296</v>
+        <v>0.02725219528361591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IUniswapV3Pool</v>
+        <v>IAaveIncentivesController</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -1034,24 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.018747798520605846</v>
       </c>
       <c r="AD7">
-        <v>0.04423333333333333</v>
+        <v>0.046246210180326416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IUniswapV3PoolDeployer</v>
+        <v>IAToken</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1126,39 +1126,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01441674835457219</v>
+        <v>0.019446401315017025</v>
       </c>
       <c r="AD8">
-        <v>0.01879968988633618</v>
+        <v>0.06265102447810249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IUniswapV3PoolActions</v>
+        <v>IERC20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.009087362714305722</v>
+        <v>0.017200892332981096</v>
       </c>
       <c r="AD9">
-        <v>0.03795461053666713</v>
+        <v>0.03256036431094423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>IUniswapV3PoolDerivedState</v>
+        <v>ILendingPool</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1310,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.010271670634364936</v>
+        <v>0.020194904309028993</v>
       </c>
       <c r="AD10">
-        <v>0.01985338478368353</v>
+        <v>0.1109695355486767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>IUniswapV3PoolEvents</v>
+        <v>ILendingPoolAddressesProvider</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.016202888340965123</v>
       </c>
       <c r="AD11">
-        <v>0.0345904761904762</v>
+        <v>0.03358832455602925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IUniswapV3PoolImmutables</v>
+        <v>IPriceOracleGetter</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,14 +1428,14 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1500,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.005090323484105868</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD12">
-        <v>0.021271197849812153</v>
+        <v>0.01646988440506362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IUniswapV3PoolOwnerActions</v>
+        <v>IScaledBalanceToken</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1592,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.007162862344209495</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD13">
-        <v>0.014642167861455942</v>
+        <v>0.02096672184870686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IUniswapV3PoolState</v>
+        <v>IVariableDebtToken</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.00969596539544726</v>
+        <v>0.018897499119408242</v>
       </c>
       <c r="AD14">
-        <v>0.043586095935651964</v>
+        <v>0.04451169264736948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>BitMath</v>
+        <v>IEntryPositionsManager</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1776,18 +1776,18 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.13888250945245764</v>
+        <v>0.023687918281084887</v>
       </c>
       <c r="AD15">
-        <v>0.18201610821841827</v>
+        <v>0.023998508152215152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>FixedPoint128</v>
+        <v>IExitPositionsManager</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1868,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>0.022565163790066924</v>
       </c>
       <c r="AD16">
-        <v>0.004238571428571428</v>
+        <v>0.02536644873558197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>FixedPoint96</v>
+        <v>IGetterUnderlyingAsset</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD17">
-        <v>0.005143809523809524</v>
+        <v>0.017390774984062635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>FullMath</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.1306734796501636</v>
+        <v>0.01620288834096512</v>
       </c>
       <c r="AD18">
-        <v>0.1630537346226295</v>
+        <v>0.0312226671715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>LiquidityMath</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.03097010222657891</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD19">
-        <v>0.039916455964845776</v>
+        <v>0.02692827498406264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>LowGasSafeMath</v>
+        <v>IMorpho</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2227,45 +2227,45 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.01202772720907436</v>
+        <v>0.016202888340965102</v>
       </c>
       <c r="AD20">
-        <v>0.04744127068625255</v>
+        <v>0.12275187261071098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>Oracle</v>
+        <v>IOracle</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>315</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2328,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.07950497129253606</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD21">
-        <v>0.21365994350991163</v>
+        <v>0.017390774984062635</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Position.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>Position</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2411,43 +2411,43 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.05446552770386967</v>
+        <v>0.01876918432043476</v>
       </c>
       <c r="AD22">
-        <v>0.09360859798654672</v>
+        <v>0.031051301330118415</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>SafeCast</v>
+        <v>ILido</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2512,39 +2512,39 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.011562339541614154</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD23">
-        <v>0.03367283821026239</v>
+        <v>0.020726123293715464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>SqrtPriceMath</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2595,42 +2595,42 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.04235777552163563</v>
+        <v>0.058436712547755176</v>
       </c>
       <c r="AD24">
-        <v>0.16421493415107866</v>
+        <v>0.10926885245614293</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>SwapMath</v>
+        <v>ILens</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2687,45 +2687,45 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.20598643980768333</v>
+        <v>0.021997182106375506</v>
       </c>
       <c r="AD25">
-        <v>0.22552712017801288</v>
+        <v>0.0980710472012287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Tick</v>
+        <v>Lens</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,42 +2779,42 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.03737718028909738</v>
+        <v>0.13585272893127773</v>
       </c>
       <c r="AD26">
-        <v>0.11155443938494536</v>
+        <v>0.17628400640689115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>TickBitmap</v>
+        <v>LensStorage</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2871,48 +2871,48 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.037674060070433134</v>
+        <v>0.022939415287072912</v>
       </c>
       <c r="AD27">
-        <v>0.06827246945559697</v>
+        <v>0.15483427302249766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>TickMath</v>
+        <v>MarketsLens</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2963,91 +2963,91 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.3301519200547698</v>
+        <v>0.033066220500176116</v>
       </c>
       <c r="AD28">
-        <v>0.4337263181504486</v>
+        <v>0.08736221991384083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>TransferHelper</v>
+        <v>RatesLens</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>16</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -3055,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.02554264108668254</v>
+        <v>0.08802227746618375</v>
       </c>
       <c r="AD29">
-        <v>0.041104254040504405</v>
+        <v>0.22009175962292993</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UnsafeMath</v>
+        <v>UsersLens</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,45 +3147,45 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.01783490980382172</v>
+        <v>0.09442175669953679</v>
       </c>
       <c r="AD30">
-        <v>0.02356837170763415</v>
+        <v>0.23289723884941713</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>NoDelegateCall</v>
+        <v>DataTypes</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3209,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3248,33 +3248,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.011615047690177224</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.04175048144570812</v>
+        <v>0.02375813681466282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>BitMathEchidnaTest</v>
+        <v>Errors</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3331,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.01937053633944826</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.04383221639439354</v>
+        <v>0.04147616027795125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>BitMathTest</v>
+        <v>ReserveConfiguration</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,42 +3423,42 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.00819913177426131</v>
+        <v>0.03467129911300393</v>
       </c>
       <c r="AD33">
-        <v>0.024812918567760932</v>
+        <v>0.1333307336534081</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>FullMathEchidnaTest</v>
+        <v>UserConfiguration</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3524,39 +3524,39 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.05954154932134207</v>
+        <v>0.05317893624515675</v>
       </c>
       <c r="AD34">
-        <v>0.1301053704913788</v>
+        <v>0.06362278879710845</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>FullMathTest</v>
+        <v>InterestRatesModel</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3607,27 +3607,27 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.011307940064416749</v>
+        <v>0.09945082685308117</v>
       </c>
       <c r="AD35">
-        <v>0.023018717960657943</v>
+        <v>0.18492300318851657</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>LiquidityMathTest</v>
+        <v>Types</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3636,17 +3636,17 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>97</v>
+      </c>
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3699,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.00819913177426131</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.019728619050852717</v>
+        <v>0.039966457137617595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>LowGasSafeMathEchidnaTest</v>
+        <v>MatchingEngine</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3800,72 +3800,72 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.0222083741772861</v>
+        <v>0.26644154322254004</v>
       </c>
       <c r="AD37">
-        <v>0.08086128025751248</v>
+        <v>0.3419255863556525</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>MockTimeUniswapV3Pool</v>
+        <v>Morpho</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>235</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3892,45 +3892,45 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.007162862344209495</v>
+        <v>0.034781707515177944</v>
       </c>
       <c r="AD38">
-        <v>0.02689229035973062</v>
+        <v>0.10336875387359884</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MockTimeUniswapV3PoolDeployer</v>
+        <v>MorphoGovernance</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -3984,33 +3984,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.043561826074779444</v>
+        <v>0.05920625216922326</v>
       </c>
       <c r="AD39">
-        <v>0.05849645653774084</v>
+        <v>0.24550033978076047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>NoDelegateCallTest</v>
+        <v>MorphoStorage</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,34 +4025,34 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4067,149 +4067,149 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.0075082854875601</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD40">
-        <v>0.04049296215026108</v>
+        <v>0.1783034133079167</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>OracleEchidnaTest</v>
+        <v>MorphoUtils</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>317</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>13</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>131</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>23</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>40</v>
+      </c>
+      <c r="AA41">
         <v>9</v>
       </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>24</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>56</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.022544727868562063</v>
+        <v>0.07153037573850361</v>
       </c>
       <c r="AD41">
-        <v>0.15990238772525686</v>
+        <v>0.28712552404537484</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>OracleTest</v>
+        <v>PositionsManagerUtils</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4251,63 +4251,63 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.025501852703925243</v>
+        <v>0.037961153484885435</v>
       </c>
       <c r="AD42">
-        <v>0.08799104740345838</v>
+        <v>0.10022750740031733</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>SqrtPriceMathEchidnaTest</v>
+        <v>RewardsDistributor</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AA43">
         <v>3</v>
@@ -4352,33 +4352,33 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.06079862893982064</v>
+        <v>0.06100969521848352</v>
       </c>
       <c r="AD43">
-        <v>0.3752815406800779</v>
+        <v>0.12708631537969986</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>SqrtPriceMathTest</v>
+        <v>FakeToken</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4444,48 +4444,48 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.013380478924520375</v>
+        <v>0.01769989432898908</v>
       </c>
       <c r="AD44">
-        <v>0.0460478315195757</v>
+        <v>0.05406626655759937</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>SwapMathEchidnaTest</v>
+        <v>IncentivesVault</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4527,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.18015314537335264</v>
+        <v>0.043233948346727</v>
       </c>
       <c r="AD45">
-        <v>0.22161407642639175</v>
+        <v>0.16716979438714974</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>SwapMathTest</v>
+        <v>InterestRatesManager</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4562,22 +4562,22 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4619,42 +4619,42 @@
         <v>0</v>
       </c>
       <c r="Z46">
+        <v>31</v>
+      </c>
+      <c r="AA46">
         <v>4</v>
       </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.019079960789805353</v>
+        <v>0.19314948399903492</v>
       </c>
       <c r="AD46">
-        <v>0.03171787827864927</v>
+        <v>0.24666369287918533</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>TestERC20</v>
+        <v>ICEth</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.03324534378938524</v>
+        <v>0.01651804749633859</v>
       </c>
       <c r="AD47">
-        <v>0.09736216883055931</v>
+        <v>0.02785126673831294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>TestUniswapV3Callee</v>
+        <v>IComptroller</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4803,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.02821209221468289</v>
+        <v>0.019927996264652654</v>
       </c>
       <c r="AD48">
-        <v>0.13710873534459694</v>
+        <v>0.06265961140422281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>TestUniswapV3ReentrantCallee</v>
+        <v>IInterestRateModel</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,57 +4895,57 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.044171567940998</v>
+        <v>0.022939415287072912</v>
       </c>
       <c r="AD49">
-        <v>0.09182595776771327</v>
+        <v>0.023262519666365184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>TestUniswapV3Router</v>
+        <v>ICToken</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4987,30 +4987,30 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.04913215028500003</v>
+        <v>0.017047353257286336</v>
       </c>
       <c r="AD50">
-        <v>0.10145240416627258</v>
+        <v>0.04341865676510148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>TestUniswapV3SwapPay</v>
+        <v>ICEther</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,27 +5079,27 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.03115214955888531</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD51">
-        <v>0.059007714671266476</v>
+        <v>0.022088623293715463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>TickBitmapEchidnaTest</v>
+        <v>ICompoundOracle</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>42</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,48 +5171,48 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.09007513990674614</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD52">
-        <v>0.13836963339754546</v>
+        <v>0.017390774984062635</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>TickBitmapTest</v>
+        <v>IIncentivesVault</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5272,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.00983895812911357</v>
+        <v>0.01620288834096512</v>
       </c>
       <c r="AD53">
-        <v>0.03570734148076101</v>
+        <v>0.0312226671715</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>TickEchidnaTest</v>
+        <v>IInterestRatesManager</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5355,42 +5355,42 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.0546593225349702</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD54">
-        <v>0.07362328810490673</v>
+        <v>0.022840774984062638</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>TickMathEchidnaTest</v>
+        <v>IMorpho</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5447,42 +5447,42 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.026487886850581153</v>
+        <v>0.016202888340965102</v>
       </c>
       <c r="AD55">
-        <v>0.058999928361162864</v>
+        <v>0.09150111345108124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>TickMathTest</v>
+        <v>IOracle</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5539,27 +5539,27 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.007853708630910705</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD56">
-        <v>0.029007703989100724</v>
+        <v>0.016028274984062636</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>TickOverflowSafetyEchidnaTest</v>
+        <v>IPositionsManager</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5631,48 +5631,48 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.08093765073363521</v>
+        <v>0.022939415287072912</v>
       </c>
       <c r="AD57">
-        <v>0.17103622033432858</v>
+        <v>0.029716069430982386</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\TickTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>TickTest</v>
+        <v>IRewardsManager</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5732,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.014762171497922796</v>
+        <v>0.01876918432043476</v>
       </c>
       <c r="AD58">
-        <v>0.048502223305576096</v>
+        <v>0.03408150713006437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>UniswapV3PoolSwapTest</v>
+        <v>IWETH</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5755,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5815,48 +5815,48 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.03426095784904075</v>
+        <v>0.01620288834096513</v>
       </c>
       <c r="AD59">
-        <v>0.06462537051688952</v>
+        <v>0.019363623293715465</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>UnsafeMathEchidnaTest</v>
+        <v>IndexesLens</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5880,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -5907,140 +5907,140 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.03813296457078841</v>
+        <v>0.058436712547755176</v>
       </c>
       <c r="AD60">
-        <v>0.054521917477095366</v>
+        <v>0.11837791541267369</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>UniswapV3Factory</v>
+        <v>ILens</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>283</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>44</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>61</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>11</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>21</v>
-      </c>
-      <c r="AA61">
-        <v>4</v>
-      </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.0719996226796745</v>
+        <v>0.021997182106375506</v>
       </c>
       <c r="AD61">
-        <v>0.1650059357447265</v>
+        <v>0.10402378005952967</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>UniswapV3Pool</v>
+        <v>Lens</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>840</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6049,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -6067,23 +6067,23 @@
         <v>0</v>
       </c>
       <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>5</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62">
-        <v>11</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>6</v>
-      </c>
-      <c r="W62">
-        <v>82</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="AA62">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.10073072640861933</v>
+        <v>0.13585272893127773</v>
       </c>
       <c r="AD62">
-        <v>0.7062492559273235</v>
+        <v>0.17715859048811833</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>UniswapV3PoolDeployer</v>
+        <v>LensStorage</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6162,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6186,113 +6186,1401 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.015453017784624004</v>
+        <v>0.022939415287072912</v>
       </c>
       <c r="AD63">
-        <v>0.03640372389146794</v>
+        <v>0.13932127348457818</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
+      </c>
+      <c r="B64" t="str">
+        <v>MarketsLens</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>21</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0.033066220500176116</v>
+      </c>
+      <c r="AD64">
+        <v>0.07792835333528753</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
+      </c>
+      <c r="B65" t="str">
+        <v>RatesLens</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>443</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>16</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>89</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0.08802227746618375</v>
+      </c>
+      <c r="AD65">
+        <v>0.20757411445116697</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RewardsLens</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>171</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>11</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>28</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0.09247239199687245</v>
+      </c>
+      <c r="AD66">
+        <v>0.15279879861659573</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
+      </c>
+      <c r="B67" t="str">
+        <v>UsersLens</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>461</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>21</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>78</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0.09442175669953679</v>
+      </c>
+      <c r="AD67">
+        <v>0.23246719441044086</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CompoundMath</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0.03848263395639233</v>
+      </c>
+      <c r="AD68">
+        <v>0.05827576169753039</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
+      </c>
+      <c r="B69" t="str">
+        <v>InterestRatesModel</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>194</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
+      <c r="AA69">
+        <v>4</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0.09945082685308117</v>
+      </c>
+      <c r="AD69">
+        <v>0.1805133849448491</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Types</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>86</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.03834722259394732</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
+      </c>
+      <c r="B71" t="str">
+        <v>MatchingEngine</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>376</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>39</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>64</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0.26644154322254004</v>
+      </c>
+      <c r="AD71">
+        <v>0.39222631694817806</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Morpho</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>237</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>12</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>35</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0.034781707515177944</v>
+      </c>
+      <c r="AD72">
+        <v>0.11132287218917938</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MorphoGovernance</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>477</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>71</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0.05920625216922326</v>
+      </c>
+      <c r="AD73">
+        <v>0.2117577422887002</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MorphoStorage</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>33</v>
+      </c>
+      <c r="G74">
+        <v>56</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>9</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0.01620288834096513</v>
+      </c>
+      <c r="AD74">
+        <v>0.1628515022254357</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MorphoUtils</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>212</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>16</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>39</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0.07153037573850361</v>
+      </c>
+      <c r="AD75">
+        <v>0.2068531379454781</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PositionsManager</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1019</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>19</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>99</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>241</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0.27065130136193893</v>
+      </c>
+      <c r="AD76">
+        <v>0.7000098400327237</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
+      </c>
+      <c r="B77" t="str">
+        <v>RewardsManager</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>247</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>13</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>34</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0.06612397377191319</v>
+      </c>
+      <c r="AD77">
+        <v>0.20398800533997274</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <v>45</v>
+      </c>
+      <c r="E78">
+        <v>795</v>
+      </c>
+      <c r="F78">
+        <v>216</v>
+      </c>
+      <c r="G78">
+        <v>12054</v>
+      </c>
+      <c r="H78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>97</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>236</v>
-      </c>
-      <c r="F64">
-        <v>57</v>
-      </c>
-      <c r="G64">
-        <v>4572</v>
-      </c>
-      <c r="H64">
-        <v>13</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>19</v>
-      </c>
-      <c r="L64">
-        <v>23</v>
-      </c>
-      <c r="M64">
+      <c r="K78">
+        <v>121</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="N64">
+      <c r="N78">
+        <v>37</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>28</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>132</v>
+      </c>
+      <c r="T78">
+        <v>624</v>
+      </c>
+      <c r="U78">
         <v>11</v>
       </c>
-      <c r="O64">
-        <v>2</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>7</v>
-      </c>
-      <c r="R64">
-        <v>15</v>
-      </c>
-      <c r="S64">
-        <v>43</v>
-      </c>
-      <c r="T64">
-        <v>166</v>
-      </c>
-      <c r="U64">
-        <v>5</v>
-      </c>
-      <c r="V64">
-        <v>7</v>
-      </c>
-      <c r="W64">
-        <v>559</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>916</v>
-      </c>
-      <c r="AA64">
-        <v>97</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>2.5020729863493254</v>
-      </c>
-      <c r="AD64">
-        <v>5.6715425620815205</v>
+      <c r="V78">
+        <v>14</v>
+      </c>
+      <c r="W78">
+        <v>531</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1609</v>
+      </c>
+      <c r="AA78">
+        <v>155</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>4.288207333388999</v>
+      </c>
+      <c r="AD78">
+        <v>9.406414865604308</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sheets/finalContractMetrics.xlsx
+++ b/sheets/finalContractMetrics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\EntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3FlashCallback.sol</v>
       </c>
       <c r="B2" t="str">
-        <v>EntryPositionsManager</v>
+        <v>IUniswapV3FlashCallback</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -571,57 +571,57 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.31781658617692427</v>
+        <v>0.01323344069458059</v>
       </c>
       <c r="AD2">
-        <v>0.4026469816012339</v>
+        <v>0.015091278713901504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\ExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3MintCallback.sol</v>
       </c>
       <c r="B3" t="str">
-        <v>ExitPositionsManager</v>
+        <v>IUniswapV3MintCallback</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -663,57 +663,57 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.26547674420605033</v>
+        <v>0.01323344069458059</v>
       </c>
       <c r="AD3">
-        <v>0.5166150026942636</v>
+        <v>0.015091278713901504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\callback\IUniswapV3SwapCallback.sol</v>
       </c>
       <c r="B4" t="str">
-        <v>IncentivesVault</v>
+        <v>IUniswapV3SwapCallback</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -755,27 +755,27 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.043233948346727</v>
+        <v>0.01323344069458059</v>
       </c>
       <c r="AD4">
-        <v>0.17065809403817855</v>
+        <v>0.015626992999615792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IERC20Minimal.sol</v>
       </c>
       <c r="B5" t="str">
-        <v>InterestRatesManager</v>
+        <v>IERC20Minimal</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -784,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>171</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -847,42 +847,42 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.19314948399903492</v>
+        <v>0.009088362974373338</v>
       </c>
       <c r="AD5">
-        <v>0.26990692669466515</v>
+        <v>0.027047033052411032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Factory.sol</v>
       </c>
       <c r="B6" t="str">
-        <v>IAaveDistributionManager</v>
+        <v>IUniswapV3Factory</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -948,36 +948,36 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.018298696724198663</v>
+        <v>0.009779209261074546</v>
       </c>
       <c r="AD6">
-        <v>0.02725219528361591</v>
+        <v>0.0379614179113367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAaveIncentivesController.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3Pool.sol</v>
       </c>
       <c r="B7" t="str">
-        <v>IAaveIncentivesController</v>
+        <v>IUniswapV3Pool</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1034,24 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.018747798520605846</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.046246210180326416</v>
+        <v>0.04423333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IAToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\IUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B8" t="str">
-        <v>IAToken</v>
+        <v>IUniswapV3PoolDeployer</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1126,39 +1126,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.019446401315017025</v>
+        <v>0.019710124632404423</v>
       </c>
       <c r="AD8">
-        <v>0.06265102447810249</v>
+        <v>0.020214976052043858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IERC20.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolActions.sol</v>
       </c>
       <c r="B9" t="str">
-        <v>IERC20</v>
+        <v>IUniswapV3PoolActions</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1224,18 +1224,18 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.017200892332981096</v>
+        <v>0.01304839258207134</v>
       </c>
       <c r="AD9">
-        <v>0.03256036431094423</v>
+        <v>0.039237404368185874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPool.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolDerivedState.sol</v>
       </c>
       <c r="B10" t="str">
-        <v>ILendingPool</v>
+        <v>IUniswapV3PoolDerivedState</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1310,24 +1310,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.020194904309028993</v>
+        <v>0.01452877748214536</v>
       </c>
       <c r="AD10">
-        <v>0.1109695355486767</v>
+        <v>0.021165621356133153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\ILendingPoolAddressesProvider.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolEvents.sol</v>
       </c>
       <c r="B11" t="str">
-        <v>ILendingPoolAddressesProvider</v>
+        <v>IUniswapV3PoolEvents</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.016202888340965123</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.03358832455602925</v>
+        <v>0.0345904761904762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IPriceOracleGetter.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolImmutables.sol</v>
       </c>
       <c r="B12" t="str">
-        <v>IPriceOracleGetter</v>
+        <v>IUniswapV3PoolImmutables</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1428,53 +1428,53 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
@@ -1500,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.01620288834096513</v>
+        <v>0.008052093544321523</v>
       </c>
       <c r="AD12">
-        <v>0.01646988440506362</v>
+        <v>0.022454622430689207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IScaledBalanceToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolOwnerActions.sol</v>
       </c>
       <c r="B13" t="str">
-        <v>IScaledBalanceToken</v>
+        <v>IUniswapV3PoolOwnerActions</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1592,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.01620288834096513</v>
+        <v>0.010642767119451058</v>
       </c>
       <c r="AD13">
-        <v>0.02096672184870686</v>
+        <v>0.015877117238962023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\aave\IVariableDebtToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\interfaces\pool\IUniswapV3PoolState.sol</v>
       </c>
       <c r="B14" t="str">
-        <v>IVariableDebtToken</v>
+        <v>IUniswapV3PoolState</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1678,24 +1678,24 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.018897499119408242</v>
+        <v>0.013809145933498265</v>
       </c>
       <c r="AD14">
-        <v>0.04451169264736948</v>
+        <v>0.04488402006459352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IEntryPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\BitMath.sol</v>
       </c>
       <c r="B15" t="str">
-        <v>IEntryPositionsManager</v>
+        <v>BitMath</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1776,18 +1776,18 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.023687918281084887</v>
+        <v>0.17549502870746395</v>
       </c>
       <c r="AD15">
-        <v>0.023998508152215152</v>
+        <v>0.1866525271803819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IExitPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint128.sol</v>
       </c>
       <c r="B16" t="str">
-        <v>IExitPositionsManager</v>
+        <v>FixedPoint128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1868,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.022565163790066924</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.02536644873558197</v>
+        <v>0.004238571428571428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IGetterUnderlyingAsset.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FixedPoint96.sol</v>
       </c>
       <c r="B17" t="str">
-        <v>IGetterUnderlyingAsset</v>
+        <v>FixedPoint96</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.01620288834096513</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.017390774984062635</v>
+        <v>0.005143809523809524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\FullMath.sol</v>
       </c>
       <c r="B18" t="str">
-        <v>IIncentivesVault</v>
+        <v>FullMath</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2043,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.01620288834096512</v>
+        <v>0.15510935570521064</v>
       </c>
       <c r="AD18">
-        <v>0.0312226671715</v>
+        <v>0.16115154379475566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LiquidityMath.sol</v>
       </c>
       <c r="B19" t="str">
-        <v>IInterestRatesManager</v>
+        <v>LiquidityMath</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.01620288834096513</v>
+        <v>0.043594384539980394</v>
       </c>
       <c r="AD19">
-        <v>0.02692827498406264</v>
+        <v>0.043740765033135176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\LowGasSafeMath.sol</v>
       </c>
       <c r="B20" t="str">
-        <v>IMorpho</v>
+        <v>LowGasSafeMath</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2227,45 +2227,45 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.016202888340965102</v>
+        <v>0.018750875227559166</v>
       </c>
       <c r="AD20">
-        <v>0.12275187261071098</v>
+        <v>0.05006541468283367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Oracle.sol</v>
       </c>
       <c r="B21" t="str">
-        <v>IOracle</v>
+        <v>Oracle</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2328,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.01620288834096513</v>
+        <v>0.09608917207362802</v>
       </c>
       <c r="AD21">
-        <v>0.017390774984062635</v>
+        <v>0.21357676096839684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Position.sol</v>
       </c>
       <c r="B22" t="str">
-        <v>IRewardsManager</v>
+        <v>Position</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2411,42 +2411,42 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.01876918432043476</v>
+        <v>0.07066073845866593</v>
       </c>
       <c r="AD22">
-        <v>0.031051301330118415</v>
+        <v>0.09657614651473768</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\interfaces\lido\ILido.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SafeCast.sol</v>
       </c>
       <c r="B23" t="str">
-        <v>ILido</v>
+        <v>SafeCast</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2512,125 +2512,125 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.01620288834096513</v>
+        <v>0.017831302805396073</v>
       </c>
       <c r="AD23">
-        <v>0.020726123293715464</v>
+        <v>0.03607403723643584</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SqrtPriceMath.sol</v>
       </c>
       <c r="B24" t="str">
-        <v>IndexesLens</v>
+        <v>SqrtPriceMath</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>215</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>46</v>
+      </c>
+      <c r="AA24">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>113</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>22</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.058436712547755176</v>
+        <v>0.05746157751015264</v>
       </c>
       <c r="AD24">
-        <v>0.10926885245614293</v>
+        <v>0.16809247849070455</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\SwapMath.sol</v>
       </c>
       <c r="B25" t="str">
-        <v>ILens</v>
+        <v>SwapMath</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -2687,45 +2687,45 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.021997182106375506</v>
+        <v>0.2772859776875321</v>
       </c>
       <c r="AD25">
-        <v>0.0980710472012287</v>
+        <v>0.24303819403252108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\Tick.sol</v>
       </c>
       <c r="B26" t="str">
-        <v>Lens</v>
+        <v>Tick</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -2779,42 +2779,42 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.13585272893127773</v>
+        <v>0.048659913799810176</v>
       </c>
       <c r="AD26">
-        <v>0.17628400640689115</v>
+        <v>0.11369648614281912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickBitmap.sol</v>
       </c>
       <c r="B27" t="str">
-        <v>LensStorage</v>
+        <v>TickBitmap</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2871,48 +2871,48 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.022939415287072912</v>
+        <v>0.05009995747042379</v>
       </c>
       <c r="AD27">
-        <v>0.15483427302249766</v>
+        <v>0.07109070333242218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\MarketsLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TickMath.sol</v>
       </c>
       <c r="B28" t="str">
-        <v>MarketsLens</v>
+        <v>TickMath</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2963,48 +2963,48 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.033066220500176116</v>
+        <v>0.3995714691375313</v>
       </c>
       <c r="AD28">
-        <v>0.08736221991384083</v>
+        <v>0.4337263181504486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\RatesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\TransferHelper.sol</v>
       </c>
       <c r="B29" t="str">
-        <v>RatesLens</v>
+        <v>TransferHelper</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -3055,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.08802227746618375</v>
+        <v>0.03868505811510993</v>
       </c>
       <c r="AD29">
-        <v>0.22009175962292993</v>
+        <v>0.04596676435558518</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\lens\UsersLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\libraries\UnsafeMath.sol</v>
       </c>
       <c r="B30" t="str">
-        <v>UsersLens</v>
+        <v>UnsafeMath</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3147,45 +3147,45 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.09442175669953679</v>
+        <v>0.02226292472406462</v>
       </c>
       <c r="AD30">
-        <v>0.23289723884941713</v>
+        <v>0.023992544387913838</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\DataTypes.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\NoDelegateCall.sol</v>
       </c>
       <c r="B31" t="str">
-        <v>DataTypes</v>
+        <v>NoDelegateCall</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3209,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3248,33 +3248,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.01670537117428309</v>
       </c>
       <c r="AD31">
-        <v>0.02375813681466282</v>
+        <v>0.04340730645166881</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\Errors.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathEchidnaTest.sol</v>
       </c>
       <c r="B32" t="str">
-        <v>Errors</v>
+        <v>BitMathEchidnaTest</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3331,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>0.030125332586472486</v>
       </c>
       <c r="AD32">
-        <v>0.04147616027795125</v>
+        <v>0.048012846024934996</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\ReserveConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\BitMathTest.sol</v>
       </c>
       <c r="B33" t="str">
-        <v>ReserveConfiguration</v>
+        <v>BitMathTest</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3423,42 +3423,42 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.03467129911300393</v>
+        <v>0.011938103907015822</v>
       </c>
       <c r="AD33">
-        <v>0.1333307336534081</v>
+        <v>0.02607363034358152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\aave\UserConfiguration.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathEchidnaTest.sol</v>
       </c>
       <c r="B34" t="str">
-        <v>UserConfiguration</v>
+        <v>FullMathEchidnaTest</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3524,73 +3524,73 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.05317893624515675</v>
+        <v>0.08527090562064654</v>
       </c>
       <c r="AD34">
-        <v>0.06362278879710845</v>
+        <v>0.1383703652341824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\InterestRatesModel.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\FullMathTest.sol</v>
       </c>
       <c r="B35" t="str">
-        <v>InterestRatesModel</v>
+        <v>FullMathTest</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3607,27 +3607,27 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.09945082685308117</v>
+        <v>0.015824114269710123</v>
       </c>
       <c r="AD35">
-        <v>0.18492300318851657</v>
+        <v>0.02435671693142208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\libraries\Types.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LiquidityMathTest.sol</v>
       </c>
       <c r="B36" t="str">
-        <v>Types</v>
+        <v>LiquidityMathTest</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3699,27 +3699,27 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>0.011938103907015824</v>
       </c>
       <c r="AD36">
-        <v>0.039966457137617595</v>
+        <v>0.02098933082667331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MatchingEngine.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\LowGasSafeMathEchidnaTest.sol</v>
       </c>
       <c r="B37" t="str">
-        <v>MatchingEngine</v>
+        <v>LowGasSafeMathEchidnaTest</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3800,73 +3800,73 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.26644154322254004</v>
+        <v>0.03485506231620221</v>
       </c>
       <c r="AD37">
-        <v>0.3419255863556525</v>
+        <v>0.0858522734158477</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\Morpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3Pool.sol</v>
       </c>
       <c r="B38" t="str">
-        <v>Morpho</v>
+        <v>MockTimeUniswapV3Pool</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>11</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -3892,90 +3892,90 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.034781707515177944</v>
+        <v>0.010642767119451058</v>
       </c>
       <c r="AD38">
-        <v>0.10336875387359884</v>
+        <v>0.0281272397372367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoGovernance.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\MockTimeUniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B39" t="str">
-        <v>MorphoGovernance</v>
+        <v>MockTimeUniswapV3PoolDeployer</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>519</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>6</v>
-      </c>
-      <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>26</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>19</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>85</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -3984,33 +3984,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.05920625216922326</v>
+        <v>0.03739147178266349</v>
       </c>
       <c r="AD39">
-        <v>0.24550033978076047</v>
+        <v>0.048904992076407826</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\NoDelegateCallTest.sol</v>
       </c>
       <c r="B40" t="str">
-        <v>MorphoStorage</v>
+        <v>NoDelegateCallTest</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4025,34 +4025,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>14</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4067,90 +4067,90 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.01620288834096513</v>
+        <v>0.011074546048639312</v>
       </c>
       <c r="AD40">
-        <v>0.1783034133079167</v>
+        <v>0.041736498993871995</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\MorphoUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleEchidnaTest.sol</v>
       </c>
       <c r="B41" t="str">
-        <v>MorphoUtils</v>
+        <v>OracleEchidnaTest</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>317</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4159,57 +4159,57 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.07153037573850361</v>
+        <v>0.03244907222886498</v>
       </c>
       <c r="AD41">
-        <v>0.28712552404537484</v>
+        <v>0.16313332820007787</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\aave-v2\PositionsManagerUtils.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\OracleTest.sol</v>
       </c>
       <c r="B42" t="str">
-        <v>PositionsManagerUtils</v>
+        <v>OracleTest</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -4251,63 +4251,63 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.037961153484885435</v>
+        <v>0.031271352773943446</v>
       </c>
       <c r="AD42">
-        <v>0.10022750740031733</v>
+        <v>0.08824590856269508</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\rewards-distribution\RewardsDistributor.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathEchidnaTest.sol</v>
       </c>
       <c r="B43" t="str">
-        <v>RewardsDistributor</v>
+        <v>SqrtPriceMathEchidnaTest</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AA43">
         <v>3</v>
@@ -4352,33 +4352,33 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.06100969521848352</v>
+        <v>0.08695392931791895</v>
       </c>
       <c r="AD43">
-        <v>0.12708631537969986</v>
+        <v>0.3836476585340089</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\common\test\FakeToken.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SqrtPriceMathTest.sol</v>
       </c>
       <c r="B44" t="str">
-        <v>FakeToken</v>
+        <v>SqrtPriceMathTest</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4444,48 +4444,48 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.01769989432898908</v>
+        <v>0.01841478784483966</v>
       </c>
       <c r="AD44">
-        <v>0.05406626655759937</v>
+        <v>0.047437355286968866</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\IncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathEchidnaTest.sol</v>
       </c>
       <c r="B45" t="str">
-        <v>IncentivesVault</v>
+        <v>SwapMathEchidnaTest</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4527,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.043233948346727</v>
+        <v>0.25397333862359767</v>
       </c>
       <c r="AD45">
-        <v>0.16716979438714974</v>
+        <v>0.24410079657638917</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\InterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\SwapMathTest.sol</v>
       </c>
       <c r="B46" t="str">
-        <v>InterestRatesManager</v>
+        <v>SwapMathTest</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4562,47 +4562,47 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4619,42 +4619,42 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.19314948399903492</v>
+        <v>0.025539140176445877</v>
       </c>
       <c r="AD46">
-        <v>0.24666369287918533</v>
+        <v>0.033249095236772254</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestERC20.sol</v>
       </c>
       <c r="B47" t="str">
-        <v>ICEth</v>
+        <v>TestERC20</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4711,57 +4711,57 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.01651804749633859</v>
+        <v>0.03402289595294776</v>
       </c>
       <c r="AD47">
-        <v>0.02785126673831294</v>
+        <v>0.09347500708484827</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Callee.sol</v>
       </c>
       <c r="B48" t="str">
-        <v>IComptroller</v>
+        <v>TestUniswapV3Callee</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4803,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.019927996264652654</v>
+        <v>0.03201487639311473</v>
       </c>
       <c r="AD48">
-        <v>0.06265961140422281</v>
+        <v>0.1357765301867464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3ReentrantCallee.sol</v>
       </c>
       <c r="B49" t="str">
-        <v>IInterestRateModel</v>
+        <v>TestUniswapV3ReentrantCallee</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4895,57 +4895,57 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.022939415287072912</v>
+        <v>0.061774144610932176</v>
       </c>
       <c r="AD49">
-        <v>0.023262519666365184</v>
+        <v>0.09702829437042595</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3Router.sol</v>
       </c>
       <c r="B50" t="str">
-        <v>ICToken</v>
+        <v>TestUniswapV3Router</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4987,30 +4987,30 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.017047353257286336</v>
+        <v>0.05830395162001379</v>
       </c>
       <c r="AD50">
-        <v>0.04341865676510148</v>
+        <v>0.10072725641929463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TestUniswapV3SwapPay.sol</v>
       </c>
       <c r="B51" t="str">
-        <v>ICEther</v>
+        <v>TestUniswapV3SwapPay</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5079,27 +5079,27 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.01620288834096513</v>
+        <v>0.040443565326985016</v>
       </c>
       <c r="AD51">
-        <v>0.022088623293715463</v>
+        <v>0.06072279856094692</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\compound\ICompound.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapEchidnaTest.sol</v>
       </c>
       <c r="B52" t="str">
-        <v>ICompoundOracle</v>
+        <v>TickBitmapEchidnaTest</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5171,48 +5171,48 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.01620288834096513</v>
+        <v>0.10914109705560482</v>
       </c>
       <c r="AD52">
-        <v>0.017390774984062635</v>
+        <v>0.13844863390838902</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IIncentivesVault.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickBitmapTest.sol</v>
       </c>
       <c r="B53" t="str">
-        <v>IIncentivesVault</v>
+        <v>TickBitmapTest</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5272,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.01620288834096512</v>
+        <v>0.01432572468841899</v>
       </c>
       <c r="AD53">
-        <v>0.0312226671715</v>
+        <v>0.03722019561174572</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IInterestRatesManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickEchidnaTest.sol</v>
       </c>
       <c r="B54" t="str">
-        <v>IInterestRatesManager</v>
+        <v>TickEchidnaTest</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5355,42 +5355,42 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.01620288834096513</v>
+        <v>0.0787595886041482</v>
       </c>
       <c r="AD54">
-        <v>0.022840774984062638</v>
+        <v>0.0815112999045701</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IMorpho.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathEchidnaTest.sol</v>
       </c>
       <c r="B55" t="str">
-        <v>IMorpho</v>
+        <v>TickMathEchidnaTest</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -5447,42 +5447,42 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.016202888340965102</v>
+        <v>0.04155580450917239</v>
       </c>
       <c r="AD55">
-        <v>0.09150111345108124</v>
+        <v>0.06494281366386265</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IOracle.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickMathTest.sol</v>
       </c>
       <c r="B56" t="str">
-        <v>IOracle</v>
+        <v>TickMathTest</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -5539,27 +5539,27 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.01620288834096513</v>
+        <v>0.011506324977827567</v>
       </c>
       <c r="AD56">
-        <v>0.016028274984062636</v>
+        <v>0.030259828298816478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IPositionsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickOverflowSafetyEchidnaTest.sol</v>
       </c>
       <c r="B57" t="str">
-        <v>IPositionsManager</v>
+        <v>TickOverflowSafetyEchidnaTest</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -5631,48 +5631,48 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.022939415287072912</v>
+        <v>0.10320519029392086</v>
       </c>
       <c r="AD57">
-        <v>0.029716069430982386</v>
+        <v>0.17432045524935474</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IRewardsManager.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\TickTest.sol</v>
       </c>
       <c r="B58" t="str">
-        <v>IRewardsManager</v>
+        <v>TickTest</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5732,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.01876918432043476</v>
+        <v>0.02014190356159268</v>
       </c>
       <c r="AD58">
-        <v>0.03408150713006437</v>
+        <v>0.04992609693738861</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\interfaces\IWETH.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UniswapV3PoolSwapTest.sol</v>
       </c>
       <c r="B59" t="str">
-        <v>IWETH</v>
+        <v>UniswapV3PoolSwapTest</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5755,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -5815,91 +5815,91 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.01620288834096513</v>
+        <v>0.04432957568967932</v>
       </c>
       <c r="AD59">
-        <v>0.019363623293715465</v>
+        <v>0.0664177416015135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\IndexesLens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\test\UnsafeMathEchidnaTest.sol</v>
       </c>
       <c r="B60" t="str">
-        <v>IndexesLens</v>
+        <v>UnsafeMathEchidnaTest</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>147</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -5907,42 +5907,42 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.058436712547755176</v>
+        <v>0.05423715165943145</v>
       </c>
       <c r="AD60">
-        <v>0.11837791541267369</v>
+        <v>0.059581175922890854</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\interfaces\ILens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Factory.sol</v>
       </c>
       <c r="B61" t="str">
-        <v>ILens</v>
+        <v>UniswapV3Factory</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5957,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5981,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -5999,90 +5999,90 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.021997182106375506</v>
+        <v>0.06317426558683036</v>
       </c>
       <c r="AD61">
-        <v>0.10402378005952967</v>
+        <v>0.1500121276637103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\Lens.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3Pool.sol</v>
       </c>
       <c r="B62" t="str">
-        <v>Lens</v>
+        <v>UniswapV3Pool</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>840</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.13585272893127773</v>
+        <v>0.12055200494103777</v>
       </c>
       <c r="AD62">
-        <v>0.17715859048811833</v>
+        <v>0.7053990230911124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\LensStorage.sol</v>
+        <v>example_projects\uniswap\v3-core-main\contracts\UniswapV3PoolDeployer.sol</v>
       </c>
       <c r="B63" t="str">
-        <v>LensStorage</v>
+        <v>UniswapV3PoolDeployer</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6162,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W63">
         <v>1</v>
@@ -6186,87 +6186,87 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.022939415287072912</v>
+        <v>0.021005461419969194</v>
       </c>
       <c r="AD63">
-        <v>0.13932127348457818</v>
+        <v>0.03784477245549014</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\MarketsLens.sol</v>
-      </c>
-      <c r="B64" t="str">
-        <v>MarketsLens</v>
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G64">
-        <v>170</v>
+        <v>4572</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -6275,1312 +6275,24 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>21</v>
+        <v>916</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="AB64">
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.033066220500176116</v>
+        <v>3.2327778581649484</v>
       </c>
       <c r="AD64">
-        <v>0.07792835333528753</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RatesLens.sol</v>
-      </c>
-      <c r="B65" t="str">
-        <v>RatesLens</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>443</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>16</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>89</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0.08802227746618375</v>
-      </c>
-      <c r="AD65">
-        <v>0.20757411445116697</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\RewardsLens.sol</v>
-      </c>
-      <c r="B66" t="str">
-        <v>RewardsLens</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>171</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>28</v>
-      </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0.09247239199687245</v>
-      </c>
-      <c r="AD66">
-        <v>0.15279879861659573</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\lens\UsersLens.sol</v>
-      </c>
-      <c r="B67" t="str">
-        <v>UsersLens</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>461</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>21</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>78</v>
-      </c>
-      <c r="AA67">
-        <v>1</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0.09442175669953679</v>
-      </c>
-      <c r="AD67">
-        <v>0.23246719441044086</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\CompoundMath.sol</v>
-      </c>
-      <c r="B68" t="str">
-        <v>CompoundMath</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>7</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>4</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0.03848263395639233</v>
-      </c>
-      <c r="AD68">
-        <v>0.05827576169753039</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\InterestRatesModel.sol</v>
-      </c>
-      <c r="B69" t="str">
-        <v>InterestRatesModel</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>194</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>5</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>33</v>
-      </c>
-      <c r="AA69">
-        <v>4</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0.09945082685308117</v>
-      </c>
-      <c r="AD69">
-        <v>0.1805133849448491</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\libraries\Types.sol</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Types</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>86</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0.03834722259394732</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MatchingEngine.sol</v>
-      </c>
-      <c r="B71" t="str">
-        <v>MatchingEngine</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>376</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>6</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>39</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>64</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0.26644154322254004</v>
-      </c>
-      <c r="AD71">
-        <v>0.39222631694817806</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\Morpho.sol</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Morpho</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>237</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>4</v>
-      </c>
-      <c r="T72">
-        <v>12</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>4</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>35</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0.034781707515177944</v>
-      </c>
-      <c r="AD72">
-        <v>0.11132287218917938</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoGovernance.sol</v>
-      </c>
-      <c r="B73" t="str">
-        <v>MorphoGovernance</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>477</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>21</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>24</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>15</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>71</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0.05920625216922326</v>
-      </c>
-      <c r="AD73">
-        <v>0.2117577422887002</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoStorage.sol</v>
-      </c>
-      <c r="B74" t="str">
-        <v>MorphoStorage</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="G74">
-        <v>56</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>17</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>9</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0.01620288834096513</v>
-      </c>
-      <c r="AD74">
-        <v>0.1628515022254357</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\MorphoUtils.sol</v>
-      </c>
-      <c r="B75" t="str">
-        <v>MorphoUtils</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>212</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>6</v>
-      </c>
-      <c r="T75">
-        <v>5</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>16</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>39</v>
-      </c>
-      <c r="AA75">
-        <v>5</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0.07153037573850361</v>
-      </c>
-      <c r="AD75">
-        <v>0.2068531379454781</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\PositionsManager.sol</v>
-      </c>
-      <c r="B76" t="str">
-        <v>PositionsManager</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1019</v>
-      </c>
-      <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>19</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>9</v>
-      </c>
-      <c r="T76">
-        <v>6</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>99</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>241</v>
-      </c>
-      <c r="AA76">
-        <v>3</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0.27065130136193893</v>
-      </c>
-      <c r="AD76">
-        <v>0.7000098400327237</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>example_projects\morpho\morpho-v1-main\src\compound\RewardsManager.sol</v>
-      </c>
-      <c r="B77" t="str">
-        <v>RewardsManager</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>12</v>
-      </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>247</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>5</v>
-      </c>
-      <c r="T77">
-        <v>6</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>13</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>34</v>
-      </c>
-      <c r="AA77">
-        <v>4</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0.06612397377191319</v>
-      </c>
-      <c r="AD77">
-        <v>0.20398800533997274</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>108</v>
-      </c>
-      <c r="D78">
-        <v>45</v>
-      </c>
-      <c r="E78">
-        <v>795</v>
-      </c>
-      <c r="F78">
-        <v>216</v>
-      </c>
-      <c r="G78">
-        <v>12054</v>
-      </c>
-      <c r="H78">
-        <v>50</v>
-      </c>
-      <c r="I78">
-        <v>77</v>
-      </c>
-      <c r="J78">
-        <v>62</v>
-      </c>
-      <c r="K78">
-        <v>121</v>
-      </c>
-      <c r="L78">
-        <v>50</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>37</v>
-      </c>
-      <c r="O78">
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>28</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>132</v>
-      </c>
-      <c r="T78">
-        <v>624</v>
-      </c>
-      <c r="U78">
-        <v>11</v>
-      </c>
-      <c r="V78">
-        <v>14</v>
-      </c>
-      <c r="W78">
-        <v>531</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-      <c r="Z78">
-        <v>1609</v>
-      </c>
-      <c r="AA78">
-        <v>155</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>4.288207333388999</v>
-      </c>
-      <c r="AD78">
-        <v>9.406414865604308</v>
+        <v>5.799558031044904</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD64"/>
   </ignoredErrors>
 </worksheet>
 </file>